--- a/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.60702681139901</v>
+        <v>3.000672629264841</v>
       </c>
       <c r="C2">
-        <v>0.9359050540385567</v>
+        <v>0.3466119026593617</v>
       </c>
       <c r="D2">
-        <v>0.02227585914950936</v>
+        <v>0.02951351066422681</v>
       </c>
       <c r="E2">
-        <v>0.02351752111282224</v>
+        <v>0.03509007220281113</v>
       </c>
       <c r="F2">
-        <v>2.604498469348272</v>
+        <v>1.497415838339307</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,39 +442,45 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.405392362432295</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.03298830932778785</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.6845085634443038</v>
       </c>
       <c r="L2">
-        <v>0.1377105688619693</v>
+        <v>0.3141737950662815</v>
       </c>
       <c r="M2">
-        <v>0.6540753996163602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.9126537805857851</v>
+      </c>
+      <c r="O2">
+        <v>1.167407762522274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.246771113867283</v>
+        <v>2.606684840328398</v>
       </c>
       <c r="C3">
-        <v>0.8046138984266236</v>
+        <v>0.3043861825487255</v>
       </c>
       <c r="D3">
-        <v>0.02163192283501658</v>
+        <v>0.03137920476012157</v>
       </c>
       <c r="E3">
-        <v>0.02242528437384728</v>
+        <v>0.0339364722643154</v>
       </c>
       <c r="F3">
-        <v>2.333611975838096</v>
+        <v>1.366048814162696</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,39 +489,45 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.284699663623812</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03162388330889421</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.5919828546134838</v>
       </c>
       <c r="L3">
-        <v>0.1201007915493513</v>
+        <v>0.2758852026987455</v>
       </c>
       <c r="M3">
-        <v>0.5647588244742749</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.9602290144381698</v>
+      </c>
+      <c r="O3">
+        <v>1.074941819343067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.028955552562138</v>
+        <v>2.368119575221328</v>
       </c>
       <c r="C4">
-        <v>0.7254130968414643</v>
+        <v>0.2786321596411625</v>
       </c>
       <c r="D4">
-        <v>0.02129951747714998</v>
+        <v>0.03255857268178231</v>
       </c>
       <c r="E4">
-        <v>0.02178979355877786</v>
+        <v>0.03328220566214313</v>
       </c>
       <c r="F4">
-        <v>2.172964334910674</v>
+        <v>1.28855301945454</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -518,39 +536,45 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.213680425115967</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03084391663007757</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5358610352166693</v>
       </c>
       <c r="L4">
-        <v>0.1095378553771624</v>
+        <v>0.2528175305610318</v>
       </c>
       <c r="M4">
-        <v>0.5109023814432803</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.9910627222651911</v>
+      </c>
+      <c r="O4">
+        <v>1.02073261770667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.940914669058003</v>
+        <v>2.271636802131866</v>
       </c>
       <c r="C5">
-        <v>0.6934376058273131</v>
+        <v>0.2681701947029609</v>
       </c>
       <c r="D5">
-        <v>0.02117815140515589</v>
+        <v>0.03304738223613879</v>
       </c>
       <c r="E5">
-        <v>0.02153898116231545</v>
+        <v>0.03302843224658503</v>
       </c>
       <c r="F5">
-        <v>2.108768370171788</v>
+        <v>1.257698937824387</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -559,39 +583,45 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.185434603605387</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0305393702000476</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5131398267118001</v>
       </c>
       <c r="L5">
-        <v>0.1052883148941852</v>
+        <v>0.2435162307126291</v>
       </c>
       <c r="M5">
-        <v>0.4891682595280571</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.004018268746208</v>
+      </c>
+      <c r="O5">
+        <v>0.9992323833760253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.926335507962477</v>
+        <v>2.255657308171806</v>
       </c>
       <c r="C6">
-        <v>0.6881446585479978</v>
+        <v>0.2664346975895882</v>
       </c>
       <c r="D6">
-        <v>0.0211588021057949</v>
+        <v>0.03312903637295705</v>
       </c>
       <c r="E6">
-        <v>0.02149780765491549</v>
+        <v>0.03298704839094668</v>
       </c>
       <c r="F6">
-        <v>2.098180973650813</v>
+        <v>1.252617557862237</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -600,39 +630,45 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.180784154812983</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03048956941681524</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5093752997513334</v>
       </c>
       <c r="L6">
-        <v>0.1045857854070107</v>
+        <v>0.2419773971662238</v>
       </c>
       <c r="M6">
-        <v>0.4855712248369315</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.006192632847053</v>
+      </c>
+      <c r="O6">
+        <v>0.995696427898892</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.027765447155105</v>
+        <v>2.366815535903015</v>
       </c>
       <c r="C7">
-        <v>0.7249807214125781</v>
+        <v>0.2784909454655065</v>
       </c>
       <c r="D7">
-        <v>0.02129782581132389</v>
+        <v>0.03256513207382095</v>
       </c>
       <c r="E7">
-        <v>0.02178637885454293</v>
+        <v>0.03327873212131394</v>
       </c>
       <c r="F7">
-        <v>2.172093625658903</v>
+        <v>1.288134058844406</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -641,39 +677,45 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.213296779562924</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03083975713115095</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5355540371947853</v>
       </c>
       <c r="L7">
-        <v>0.1094803319351811</v>
+        <v>0.2526917046257466</v>
       </c>
       <c r="M7">
-        <v>0.5106084493228593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.9912358859413573</v>
+      </c>
+      <c r="O7">
+        <v>1.020440336522775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.482026293063939</v>
+        <v>2.864064625752064</v>
       </c>
       <c r="C8">
-        <v>0.8903074235551856</v>
+        <v>0.3320100727079307</v>
       </c>
       <c r="D8">
-        <v>0.02203965263390728</v>
+        <v>0.03014959131829253</v>
       </c>
       <c r="E8">
-        <v>0.02313319296578165</v>
+        <v>0.03468062759404766</v>
       </c>
       <c r="F8">
-        <v>2.509818326481621</v>
+        <v>1.451420245373995</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -682,39 +724,45 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.363085748689016</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0.03250507983030282</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6524472965472867</v>
       </c>
       <c r="L8">
-        <v>0.1315819928741782</v>
+        <v>0.3008726410029254</v>
       </c>
       <c r="M8">
-        <v>0.6230528105730002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.9287101304692627</v>
+      </c>
+      <c r="O8">
+        <v>1.134958901341918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.406283427460835</v>
+        <v>3.871001943588396</v>
       </c>
       <c r="C9">
-        <v>1.228557709134748</v>
+        <v>0.4388522856690145</v>
       </c>
       <c r="D9">
-        <v>0.02408331240277661</v>
+        <v>0.025696487449693</v>
       </c>
       <c r="E9">
-        <v>0.02608750019952311</v>
+        <v>0.03789524878540007</v>
       </c>
       <c r="F9">
-        <v>3.225157433667761</v>
+        <v>1.800167527181401</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -723,39 +771,45 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.685404571485194</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.03629160595484038</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8883598519806384</v>
       </c>
       <c r="L9">
-        <v>0.1772987898377103</v>
+        <v>0.3994592938228578</v>
       </c>
       <c r="M9">
-        <v>0.8531280335306306</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.8198239921632862</v>
+      </c>
+      <c r="O9">
+        <v>1.382583330620889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.11627800758589</v>
+        <v>4.63839334312263</v>
       </c>
       <c r="C10">
-        <v>1.490170634445121</v>
+        <v>0.5193128593977008</v>
       </c>
       <c r="D10">
-        <v>0.02608791539243072</v>
+        <v>0.0226227758673998</v>
       </c>
       <c r="E10">
-        <v>0.02850309048013067</v>
+        <v>0.04059694499311561</v>
       </c>
       <c r="F10">
-        <v>3.795780344433865</v>
+        <v>2.079090749284106</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -764,39 +818,45 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.946126168239616</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0.03948938352462505</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.067642607427729</v>
       </c>
       <c r="L10">
-        <v>0.2129636452799417</v>
+        <v>0.4753177629662275</v>
       </c>
       <c r="M10">
-        <v>1.030806903251516</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.7495045318124767</v>
+      </c>
+      <c r="O10">
+        <v>1.582729432852645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.448786437084834</v>
+        <v>4.995559484860792</v>
       </c>
       <c r="C11">
-        <v>1.613237903774802</v>
+        <v>0.5565493058789741</v>
       </c>
       <c r="D11">
-        <v>0.02714819445743188</v>
+        <v>0.021274316218586</v>
       </c>
       <c r="E11">
-        <v>0.02966936348333782</v>
+        <v>0.04191386598927771</v>
       </c>
       <c r="F11">
-        <v>4.068514075021966</v>
+        <v>2.212247027216151</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -805,39 +865,45 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.071640284380138</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0.04106024762600136</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.150972727702907</v>
       </c>
       <c r="L11">
-        <v>0.2298053355931273</v>
+        <v>0.5108050201705936</v>
       </c>
       <c r="M11">
-        <v>1.114256746872982</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.7199490659601295</v>
+      </c>
+      <c r="O11">
+        <v>1.678789175987063</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.576344370046741</v>
+        <v>5.132164783670419</v>
       </c>
       <c r="C12">
-        <v>1.660543624305717</v>
+        <v>0.570760581984274</v>
       </c>
       <c r="D12">
-        <v>0.02757498795022784</v>
+        <v>0.02077155190671687</v>
       </c>
       <c r="E12">
-        <v>0.03012207592210103</v>
+        <v>0.04242650516283852</v>
       </c>
       <c r="F12">
-        <v>4.174013979148015</v>
+        <v>2.263698298121312</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -846,39 +912,45 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.120331852125844</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0.04167433760429695</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.182827521598952</v>
       </c>
       <c r="L12">
-        <v>0.2362879728051652</v>
+        <v>0.5244057977391918</v>
       </c>
       <c r="M12">
-        <v>1.146307320298703</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.709139009635976</v>
+      </c>
+      <c r="O12">
+        <v>1.715984879255387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.548794535258821</v>
+        <v>5.102680843835515</v>
       </c>
       <c r="C13">
-        <v>1.650322128105813</v>
+        <v>0.5676946739350797</v>
       </c>
       <c r="D13">
-        <v>0.02748187522360368</v>
+        <v>0.02087946870396928</v>
       </c>
       <c r="E13">
-        <v>0.03002405974474343</v>
+        <v>0.04231545633613898</v>
       </c>
       <c r="F13">
-        <v>4.151188077240931</v>
+        <v>2.252569467979413</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -887,39 +959,45 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.109790605352686</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.04154118229832449</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.175952937662714</v>
       </c>
       <c r="L13">
-        <v>0.2348868628890912</v>
+        <v>0.5214690250308109</v>
       </c>
       <c r="M13">
-        <v>1.139383364730044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.7114496091143891</v>
+      </c>
+      <c r="O13">
+        <v>1.707935945121378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.459246030296526</v>
+        <v>5.006769758649398</v>
       </c>
       <c r="C14">
-        <v>1.617114937169674</v>
+        <v>0.5577161390410765</v>
       </c>
       <c r="D14">
-        <v>0.02718277508767386</v>
+        <v>0.02123279132691325</v>
       </c>
       <c r="E14">
-        <v>0.02970637793728947</v>
+        <v>0.04195575353810632</v>
       </c>
       <c r="F14">
-        <v>4.077147019866004</v>
+        <v>2.216458580356658</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -928,39 +1006,45 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.075621821486678</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0.04111036775857357</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.153587165247373</v>
       </c>
       <c r="L14">
-        <v>0.2303364586233627</v>
+        <v>0.5119205734729775</v>
       </c>
       <c r="M14">
-        <v>1.116884092518276</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.7190518637554746</v>
+      </c>
+      <c r="O14">
+        <v>1.681832245530543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.404617968487742</v>
+        <v>4.948203919726438</v>
       </c>
       <c r="C15">
-        <v>1.596869964437417</v>
+        <v>0.5516190235063902</v>
       </c>
       <c r="D15">
-        <v>0.02700298996944639</v>
+        <v>0.02145025933227185</v>
       </c>
       <c r="E15">
-        <v>0.0295132746142599</v>
+        <v>0.04173728315156744</v>
       </c>
       <c r="F15">
-        <v>4.032094706764099</v>
+        <v>2.194477465790058</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -969,39 +1053,45 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.054849232663955</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0408490683647873</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.139927894410164</v>
       </c>
       <c r="L15">
-        <v>0.2275634104396431</v>
+        <v>0.5060937252454494</v>
       </c>
       <c r="M15">
-        <v>1.103163583716572</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.7237592232782646</v>
+      </c>
+      <c r="O15">
+        <v>1.665952902736535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.094762018474739</v>
+        <v>4.615230194978494</v>
       </c>
       <c r="C16">
-        <v>1.482219334357012</v>
+        <v>0.5168937434490033</v>
       </c>
       <c r="D16">
-        <v>0.02602193209635217</v>
+        <v>0.0227119607003734</v>
       </c>
       <c r="E16">
-        <v>0.02842834147504192</v>
+        <v>0.04051275870610738</v>
       </c>
       <c r="F16">
-        <v>3.778248336564019</v>
+        <v>2.070525328224633</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1010,39 +1100,45 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.938076402801798</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0.03938926965265566</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.06223615938697</v>
       </c>
       <c r="L16">
-        <v>0.2118767622885755</v>
+        <v>0.4730200890339518</v>
       </c>
       <c r="M16">
-        <v>1.025412009833936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.751487669097699</v>
+      </c>
+      <c r="O16">
+        <v>1.576560782577232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.907298086383264</v>
+        <v>4.413160483504896</v>
       </c>
       <c r="C17">
-        <v>1.413003450727103</v>
+        <v>0.495766505508584</v>
       </c>
       <c r="D17">
-        <v>0.02546069493005021</v>
+        <v>0.02349919417590729</v>
       </c>
       <c r="E17">
-        <v>0.02778095436170602</v>
+        <v>0.03978495527791281</v>
       </c>
       <c r="F17">
-        <v>3.62611051867168</v>
+        <v>1.996176390045235</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1051,39 +1147,45 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.868322040830677</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.03852517365975316</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.015059077552763</v>
       </c>
       <c r="L17">
-        <v>0.2024225018652928</v>
+        <v>0.4529959182539045</v>
       </c>
       <c r="M17">
-        <v>0.9784341165030099</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.7691430285015173</v>
+      </c>
+      <c r="O17">
+        <v>1.523072417076392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.800351983181713</v>
+        <v>4.297682694208845</v>
       </c>
       <c r="C18">
-        <v>1.373566143865844</v>
+        <v>0.4836731103658565</v>
       </c>
       <c r="D18">
-        <v>0.02515157946727342</v>
+        <v>0.02395662750106586</v>
       </c>
       <c r="E18">
-        <v>0.02741484613533629</v>
+        <v>0.0393745298659347</v>
       </c>
       <c r="F18">
-        <v>3.539820592662807</v>
+        <v>1.953994923159712</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1092,39 +1194,45 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.828840182162239</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0.0380389321200294</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.9880880496226041</v>
       </c>
       <c r="L18">
-        <v>0.1970416853953196</v>
+        <v>0.4415692391996515</v>
       </c>
       <c r="M18">
-        <v>0.9516555973382523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.7795248204476195</v>
+      </c>
+      <c r="O18">
+        <v>1.492772525215742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.764285014428481</v>
+        <v>4.258706735749968</v>
       </c>
       <c r="C19">
-        <v>1.360274219277244</v>
+        <v>0.4795879770569513</v>
       </c>
       <c r="D19">
-        <v>0.02504916034064664</v>
+        <v>0.02411228329901483</v>
       </c>
       <c r="E19">
-        <v>0.02729192311002215</v>
+        <v>0.03923693552257923</v>
       </c>
       <c r="F19">
-        <v>3.5108038473156</v>
+        <v>1.939809372085449</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1133,39 +1241,45 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.815577326957751</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.03787607655678116</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.9789830147889376</v>
       </c>
       <c r="L19">
-        <v>0.1952291709974645</v>
+        <v>0.4377153152340441</v>
       </c>
       <c r="M19">
-        <v>0.9426283592214233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.7830779698147055</v>
+      </c>
+      <c r="O19">
+        <v>1.482590562648994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.927161199149793</v>
+        <v>4.434592472518034</v>
       </c>
       <c r="C20">
-        <v>1.420332103861654</v>
+        <v>0.4980093553444078</v>
       </c>
       <c r="D20">
-        <v>0.02551899586632445</v>
+        <v>0.02341490710098326</v>
       </c>
       <c r="E20">
-        <v>0.02784921344654201</v>
+        <v>0.03986157474634311</v>
       </c>
       <c r="F20">
-        <v>3.642177793801295</v>
+        <v>2.004029852893879</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1174,39 +1288,45 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.875680237764257</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0.0386160270016056</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.020063881210419</v>
       </c>
       <c r="L20">
-        <v>0.2034229122477313</v>
+        <v>0.4551179890561059</v>
       </c>
       <c r="M20">
-        <v>0.9834094630481474</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.7672398821302195</v>
+      </c>
+      <c r="O20">
+        <v>1.528717516142606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.485501576714796</v>
+        <v>5.034902766070388</v>
       </c>
       <c r="C21">
-        <v>1.626848574447308</v>
+        <v>0.5606439073337413</v>
       </c>
       <c r="D21">
-        <v>0.02726990678344166</v>
+        <v>0.02112879213425689</v>
       </c>
       <c r="E21">
-        <v>0.02979937636448327</v>
+        <v>0.04206101722974864</v>
       </c>
       <c r="F21">
-        <v>4.098831496695766</v>
+        <v>2.227036250455768</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1215,39 +1335,45 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.08562501119134</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0.04123636424508348</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.160148026374927</v>
       </c>
       <c r="L21">
-        <v>0.2316700295842935</v>
+        <v>0.514720588342783</v>
       </c>
       <c r="M21">
-        <v>1.123479827137565</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.7168082564178349</v>
+      </c>
+      <c r="O21">
+        <v>1.689476432347917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.860152690261998</v>
+        <v>5.4352401627944</v>
       </c>
       <c r="C22">
-        <v>1.765985466846303</v>
+        <v>0.6022349105711839</v>
       </c>
       <c r="D22">
-        <v>0.02856399270424959</v>
+        <v>0.01968096318240953</v>
       </c>
       <c r="E22">
-        <v>0.03113923843910804</v>
+        <v>0.04358050471777908</v>
       </c>
       <c r="F22">
-        <v>4.410422062292611</v>
+        <v>2.378844558360868</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1256,39 +1382,45 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.229707598094151</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0.0430625044363584</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.253471306544697</v>
       </c>
       <c r="L22">
-        <v>0.2507529311976597</v>
+        <v>0.5546336261748763</v>
       </c>
       <c r="M22">
-        <v>1.217688785205169</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.6860923716080123</v>
+      </c>
+      <c r="O22">
+        <v>1.799375872232162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.659200668610879</v>
+        <v>5.22077076851042</v>
       </c>
       <c r="C23">
-        <v>1.691299671709601</v>
+        <v>0.5799699601697625</v>
       </c>
       <c r="D23">
-        <v>0.02785811744199762</v>
+        <v>0.02044919612533769</v>
       </c>
       <c r="E23">
-        <v>0.03041764252084356</v>
+        <v>0.04276154938297694</v>
       </c>
       <c r="F23">
-        <v>4.242795019281118</v>
+        <v>2.297221494921473</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1297,39 +1429,45 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.152116564446558</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0.04207652466600109</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.203484844361654</v>
       </c>
       <c r="L23">
-        <v>0.2405050887644578</v>
+        <v>0.5332356448971467</v>
       </c>
       <c r="M23">
-        <v>1.167136750935448</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.7022690556826419</v>
+      </c>
+      <c r="O23">
+        <v>1.740242216764429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.918178522577932</v>
+        <v>4.424900920497919</v>
       </c>
       <c r="C24">
-        <v>1.417017720208094</v>
+        <v>0.4969951994868893</v>
       </c>
       <c r="D24">
-        <v>0.02549259610564292</v>
+        <v>0.02345299825701774</v>
       </c>
       <c r="E24">
-        <v>0.02781833466747941</v>
+        <v>0.03982691026832264</v>
       </c>
       <c r="F24">
-        <v>3.634910139585031</v>
+        <v>2.000477558895966</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,39 +1476,45 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.872351675493277</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0.03857491956597237</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.0178007402437</v>
       </c>
       <c r="L24">
-        <v>0.2029704579536968</v>
+        <v>0.4541583361975654</v>
       </c>
       <c r="M24">
-        <v>0.9811593987649516</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.7680995759397931</v>
+      </c>
+      <c r="O24">
+        <v>1.526163968563068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.151659699966956</v>
+        <v>3.594395053656797</v>
       </c>
       <c r="C25">
-        <v>1.135116346923837</v>
+        <v>0.4096676440577198</v>
       </c>
       <c r="D25">
-        <v>0.02345378439049739</v>
+        <v>0.02686845006621752</v>
       </c>
       <c r="E25">
-        <v>0.02524955980093679</v>
+        <v>0.03697029932806295</v>
       </c>
       <c r="F25">
-        <v>3.024743935414762</v>
+        <v>1.702251686647642</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1379,19 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.594528741044556</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0.03520208149566351</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8236407388689315</v>
       </c>
       <c r="L25">
-        <v>0.1646168183910959</v>
+        <v>0.3722596877837105</v>
       </c>
       <c r="M25">
-        <v>0.789593864374595</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.8476840630005213</v>
+      </c>
+      <c r="O25">
+        <v>1.312722132332652</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.000672629264841</v>
+        <v>1.352751969760163</v>
       </c>
       <c r="C2">
-        <v>0.3466119026593617</v>
+        <v>0.425325102981617</v>
       </c>
       <c r="D2">
-        <v>0.02951351066422681</v>
+        <v>0.02573267461919304</v>
       </c>
       <c r="E2">
-        <v>0.03509007220281113</v>
+        <v>1.383913835254688</v>
       </c>
       <c r="F2">
-        <v>1.497415838339307</v>
+        <v>1.322880243216929</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.7082496450518647</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6845085634443038</v>
+        <v>1.758310626606345</v>
       </c>
       <c r="L2">
-        <v>0.3141737950662815</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9126537805857851</v>
+        <v>1.056002761250497</v>
       </c>
       <c r="O2">
-        <v>1.167407762522274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.606684840328398</v>
+        <v>1.167926089405483</v>
       </c>
       <c r="C3">
-        <v>0.3043861825487255</v>
+        <v>0.3660457515748874</v>
       </c>
       <c r="D3">
-        <v>0.03137920476012157</v>
+        <v>0.02719763011942344</v>
       </c>
       <c r="E3">
-        <v>0.0339364722643154</v>
+        <v>1.184717039181464</v>
       </c>
       <c r="F3">
-        <v>1.366048814162696</v>
+        <v>1.206548084302895</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.6664758657260137</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5919828546134838</v>
+        <v>1.516780462856701</v>
       </c>
       <c r="L3">
-        <v>0.2758852026987455</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9602290144381698</v>
+        <v>1.081408094022549</v>
       </c>
       <c r="O3">
-        <v>1.074941819343067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.368119575221328</v>
+        <v>1.055888448842637</v>
       </c>
       <c r="C4">
-        <v>0.2786321596411625</v>
+        <v>0.3302896030945135</v>
       </c>
       <c r="D4">
-        <v>0.03255857268178231</v>
+        <v>0.02810679503073743</v>
       </c>
       <c r="E4">
-        <v>0.03328220566214313</v>
+        <v>1.065232577121506</v>
       </c>
       <c r="F4">
-        <v>1.28855301945454</v>
+        <v>1.137891486450201</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6423459280939383</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5358610352166693</v>
+        <v>1.370565546600005</v>
       </c>
       <c r="L4">
-        <v>0.2528175305610318</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9910627222651911</v>
+        <v>1.098727691421722</v>
       </c>
       <c r="O4">
-        <v>1.02073261770667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.271636802131866</v>
+        <v>1.01054215450452</v>
       </c>
       <c r="C5">
-        <v>0.2681701947029609</v>
+        <v>0.3158564557342629</v>
       </c>
       <c r="D5">
-        <v>0.03304738223613879</v>
+        <v>0.02847964221957966</v>
       </c>
       <c r="E5">
-        <v>0.03302843224658503</v>
+        <v>1.01714018102291</v>
       </c>
       <c r="F5">
-        <v>1.257698937824387</v>
+        <v>1.110545333201159</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6328632505435081</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5131398267118001</v>
+        <v>1.311429154460569</v>
       </c>
       <c r="L5">
-        <v>0.2435162307126291</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.004018268746208</v>
+        <v>1.106194630483287</v>
       </c>
       <c r="O5">
-        <v>0.9992323833760253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.255657308171806</v>
+        <v>1.003029670730626</v>
       </c>
       <c r="C6">
-        <v>0.2664346975895882</v>
+        <v>0.3134675135033547</v>
       </c>
       <c r="D6">
-        <v>0.03312903637295705</v>
+        <v>0.02854169374945759</v>
       </c>
       <c r="E6">
-        <v>0.03298704839094668</v>
+        <v>1.009187573097876</v>
       </c>
       <c r="F6">
-        <v>1.252617557862237</v>
+        <v>1.10604089360497</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6313089520127733</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5093752997513334</v>
+        <v>1.301634490566499</v>
       </c>
       <c r="L6">
-        <v>0.2419773971662238</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.006192632847053</v>
+        <v>1.107458563438392</v>
       </c>
       <c r="O6">
-        <v>0.995696427898892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.366815535903015</v>
+        <v>1.055275705645869</v>
       </c>
       <c r="C7">
-        <v>0.2784909454655065</v>
+        <v>0.3300944244427058</v>
       </c>
       <c r="D7">
-        <v>0.03256513207382095</v>
+        <v>0.02811181392320705</v>
       </c>
       <c r="E7">
-        <v>0.03327873212131394</v>
+        <v>1.064581702243373</v>
       </c>
       <c r="F7">
-        <v>1.288134058844406</v>
+        <v>1.137520209940192</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6422166622174856</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5355540371947853</v>
+        <v>1.369766298319576</v>
       </c>
       <c r="L7">
-        <v>0.2526917046257466</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9912358859413573</v>
+        <v>1.098826766651754</v>
       </c>
       <c r="O7">
-        <v>1.020440336522775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.864064625752064</v>
+        <v>1.288690050215024</v>
       </c>
       <c r="C8">
-        <v>0.3320100727079307</v>
+        <v>0.4047375538850133</v>
       </c>
       <c r="D8">
-        <v>0.03014959131829253</v>
+        <v>0.02623572612168878</v>
       </c>
       <c r="E8">
-        <v>0.03468062759404766</v>
+        <v>1.314574123019071</v>
       </c>
       <c r="F8">
-        <v>1.451420245373995</v>
+        <v>1.282152738595045</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.6935108547479558</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6524472965472867</v>
+        <v>1.674549636743023</v>
       </c>
       <c r="L8">
-        <v>0.3008726410029254</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9287101304692627</v>
+        <v>1.064390569340027</v>
       </c>
       <c r="O8">
-        <v>1.134958901341918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.871001943588396</v>
+        <v>1.760585629103559</v>
       </c>
       <c r="C9">
-        <v>0.4388522856690145</v>
+        <v>0.5573915625789425</v>
       </c>
       <c r="D9">
-        <v>0.025696487449693</v>
+        <v>0.0226388502786099</v>
       </c>
       <c r="E9">
-        <v>0.03789524878540007</v>
+        <v>1.832913693370685</v>
       </c>
       <c r="F9">
-        <v>1.800167527181401</v>
+        <v>1.591021380866678</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.8077319026522858</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8883598519806384</v>
+        <v>2.29265000646069</v>
       </c>
       <c r="L9">
-        <v>0.3994592938228578</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8198239921632862</v>
+        <v>1.011689708888682</v>
       </c>
       <c r="O9">
-        <v>1.382583330620889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.63839334312263</v>
+        <v>2.12015634098691</v>
       </c>
       <c r="C10">
-        <v>0.5193128593977008</v>
+        <v>0.6752508557571275</v>
       </c>
       <c r="D10">
-        <v>0.0226227758673998</v>
+        <v>0.02005735309866896</v>
       </c>
       <c r="E10">
-        <v>0.04059694499311561</v>
+        <v>2.240063428200258</v>
       </c>
       <c r="F10">
-        <v>2.079090749284106</v>
+        <v>1.83842434333117</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.9024294172590928</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.067642607427729</v>
+        <v>2.765306337788758</v>
       </c>
       <c r="L10">
-        <v>0.4753177629662275</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7495045318124767</v>
+        <v>0.9838461845581321</v>
       </c>
       <c r="O10">
-        <v>1.582729432852645</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.995559484860792</v>
+        <v>2.287621911872691</v>
       </c>
       <c r="C11">
-        <v>0.5565493058789741</v>
+        <v>0.7305974938483928</v>
       </c>
       <c r="D11">
-        <v>0.021274316218586</v>
+        <v>0.01890010608673176</v>
       </c>
       <c r="E11">
-        <v>0.04191386598927771</v>
+        <v>2.433480733714745</v>
       </c>
       <c r="F11">
-        <v>2.212247027216151</v>
+        <v>1.956736033600066</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.9484888594976866</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.150972727702907</v>
+        <v>2.985934422621654</v>
       </c>
       <c r="L11">
-        <v>0.5108050201705936</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7199490659601295</v>
+        <v>0.974017338186755</v>
       </c>
       <c r="O11">
-        <v>1.678789175987063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.132164783670419</v>
+        <v>2.351702118345827</v>
       </c>
       <c r="C12">
-        <v>0.570760581984274</v>
+        <v>0.7518527335341219</v>
       </c>
       <c r="D12">
-        <v>0.02077155190671687</v>
+        <v>0.01846480887337076</v>
       </c>
       <c r="E12">
-        <v>0.04242650516283852</v>
+        <v>2.508151239321322</v>
       </c>
       <c r="F12">
-        <v>2.263698298121312</v>
+        <v>2.002494032145364</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.9664208735032673</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.182827521598952</v>
+        <v>3.070440536260179</v>
       </c>
       <c r="L12">
-        <v>0.5244057977391918</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.709139009635976</v>
+        <v>0.9707498719842107</v>
       </c>
       <c r="O12">
-        <v>1.715984879255387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.102680843835515</v>
+        <v>2.33786992030474</v>
       </c>
       <c r="C13">
-        <v>0.5676946739350797</v>
+        <v>0.747261009210888</v>
       </c>
       <c r="D13">
-        <v>0.02087946870396928</v>
+        <v>0.0185584188179293</v>
       </c>
       <c r="E13">
-        <v>0.04231545633613898</v>
+        <v>2.492001713330097</v>
       </c>
       <c r="F13">
-        <v>2.252569467979413</v>
+        <v>1.992594508012672</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.9625360139122705</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.175952937662714</v>
+        <v>3.05219533347676</v>
       </c>
       <c r="L13">
-        <v>0.5214690250308109</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7114496091143891</v>
+        <v>0.9714325548867748</v>
       </c>
       <c r="O13">
-        <v>1.707935945121378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.006769758649398</v>
+        <v>2.292879858809044</v>
       </c>
       <c r="C14">
-        <v>0.5577161390410765</v>
+        <v>0.7323399317818087</v>
       </c>
       <c r="D14">
-        <v>0.02123279132691325</v>
+        <v>0.018864232094713</v>
       </c>
       <c r="E14">
-        <v>0.04195575353810632</v>
+        <v>2.439593739219688</v>
       </c>
       <c r="F14">
-        <v>2.216458580356658</v>
+        <v>1.960480625565623</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.949953927268794</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.153587165247373</v>
+        <v>2.992866625734166</v>
       </c>
       <c r="L14">
-        <v>0.5119205734729775</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7190518637554746</v>
+        <v>0.973739123376248</v>
       </c>
       <c r="O14">
-        <v>1.681832245530543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.948203919726438</v>
+        <v>2.265412047845814</v>
       </c>
       <c r="C15">
-        <v>0.5516190235063902</v>
+        <v>0.7232405081721822</v>
       </c>
       <c r="D15">
-        <v>0.02145025933227185</v>
+        <v>0.01905194894475049</v>
       </c>
       <c r="E15">
-        <v>0.04173728315156744</v>
+        <v>2.407686330137238</v>
       </c>
       <c r="F15">
-        <v>2.194477465790058</v>
+        <v>1.940938491295114</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.9423128615162426</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.139927894410164</v>
+        <v>2.956655839413116</v>
       </c>
       <c r="L15">
-        <v>0.5060937252454494</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7237592232782646</v>
+        <v>0.9752126430575316</v>
       </c>
       <c r="O15">
-        <v>1.665952902736535</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.615230194978494</v>
+        <v>2.109299067919096</v>
       </c>
       <c r="C16">
-        <v>0.5168937434490033</v>
+        <v>0.671672589767752</v>
       </c>
       <c r="D16">
-        <v>0.0227119607003734</v>
+        <v>0.0201333630351197</v>
       </c>
       <c r="E16">
-        <v>0.04051275870610738</v>
+        <v>2.227608487826942</v>
       </c>
       <c r="F16">
-        <v>2.070525328224633</v>
+        <v>1.830818881614974</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.8994843911825541</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.06223615938697</v>
+        <v>2.751013247007563</v>
       </c>
       <c r="L16">
-        <v>0.4730200890339518</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.751487669097699</v>
+        <v>0.9845494490707694</v>
       </c>
       <c r="O16">
-        <v>1.576560782577232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.413160483504896</v>
+        <v>2.014596484917831</v>
       </c>
       <c r="C17">
-        <v>0.495766505508584</v>
+        <v>0.6405127128535071</v>
       </c>
       <c r="D17">
-        <v>0.02349919417590729</v>
+        <v>0.02080144746885892</v>
       </c>
       <c r="E17">
-        <v>0.03978495527791281</v>
+        <v>2.119401423687918</v>
       </c>
       <c r="F17">
-        <v>1.996176390045235</v>
+        <v>1.764825980828746</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.8740153306814804</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.015059077552763</v>
+        <v>2.626397707968408</v>
       </c>
       <c r="L17">
-        <v>0.4529959182539045</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7691430285015173</v>
+        <v>0.9910351284551098</v>
       </c>
       <c r="O17">
-        <v>1.523072417076392</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.297682694208845</v>
+        <v>1.960485659662965</v>
       </c>
       <c r="C18">
-        <v>0.4836731103658565</v>
+        <v>0.6227501645812197</v>
       </c>
       <c r="D18">
-        <v>0.02395662750106586</v>
+        <v>0.02118728553186244</v>
       </c>
       <c r="E18">
-        <v>0.0393745298659347</v>
+        <v>2.057918626317644</v>
       </c>
       <c r="F18">
-        <v>1.953994923159712</v>
+        <v>1.727402898235979</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.859642649456724</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9880880496226041</v>
+        <v>2.555240378814034</v>
       </c>
       <c r="L18">
-        <v>0.4415692391996515</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7795248204476195</v>
+        <v>0.9950294520845944</v>
       </c>
       <c r="O18">
-        <v>1.492772525215742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.258706735749968</v>
+        <v>1.942223464281852</v>
       </c>
       <c r="C19">
-        <v>0.4795879770569513</v>
+        <v>0.6167621721295973</v>
       </c>
       <c r="D19">
-        <v>0.02411228329901483</v>
+        <v>0.02131818166257737</v>
       </c>
       <c r="E19">
-        <v>0.03923693552257923</v>
+        <v>2.037224383242545</v>
       </c>
       <c r="F19">
-        <v>1.939809372085449</v>
+        <v>1.714820262908262</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.8548220418676706</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9789830147889376</v>
+        <v>2.531232446099864</v>
       </c>
       <c r="L19">
-        <v>0.4377153152340441</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7830779698147055</v>
+        <v>0.9964258760225562</v>
       </c>
       <c r="O19">
-        <v>1.482590562648994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.434592472518034</v>
+        <v>2.024639807070514</v>
       </c>
       <c r="C20">
-        <v>0.4980093553444078</v>
+        <v>0.6438128739416413</v>
       </c>
       <c r="D20">
-        <v>0.02341490710098326</v>
+        <v>0.02073016288660146</v>
       </c>
       <c r="E20">
-        <v>0.03986157474634311</v>
+        <v>2.130840439551733</v>
       </c>
       <c r="F20">
-        <v>2.004029852893879</v>
+        <v>1.771794877419751</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.8766975241670849</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.020063881210419</v>
+        <v>2.639608576563575</v>
       </c>
       <c r="L20">
-        <v>0.4551179890561059</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7672398821302195</v>
+        <v>0.9903170839611306</v>
       </c>
       <c r="O20">
-        <v>1.528717516142606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.034902766070388</v>
+        <v>2.306075587978626</v>
       </c>
       <c r="C21">
-        <v>0.5606439073337413</v>
+        <v>0.7367141480643227</v>
       </c>
       <c r="D21">
-        <v>0.02112879213425689</v>
+        <v>0.01877432347642571</v>
       </c>
       <c r="E21">
-        <v>0.04206101722974864</v>
+        <v>2.45494630105658</v>
       </c>
       <c r="F21">
-        <v>2.227036250455768</v>
+        <v>1.96988621124801</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.953635750871598</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.160148026374927</v>
+        <v>3.010265562038484</v>
       </c>
       <c r="L21">
-        <v>0.514720588342783</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7168082564178349</v>
+        <v>0.9730488903738177</v>
       </c>
       <c r="O21">
-        <v>1.689476432347917</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.4352401627944</v>
+        <v>2.493943499123532</v>
       </c>
       <c r="C22">
-        <v>0.6022349105711839</v>
+        <v>0.7991871145813718</v>
       </c>
       <c r="D22">
-        <v>0.01968096318240953</v>
+        <v>0.01751345105596336</v>
       </c>
       <c r="E22">
-        <v>0.04358050471777908</v>
+        <v>2.675236551206098</v>
       </c>
       <c r="F22">
-        <v>2.378844558360868</v>
+        <v>2.104994237268954</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.006812238562333</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.253471306544697</v>
+        <v>3.258187917584479</v>
       </c>
       <c r="L22">
-        <v>0.5546336261748763</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6860923716080123</v>
+        <v>0.9644388030067859</v>
       </c>
       <c r="O22">
-        <v>1.799375872232162</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.22077076851042</v>
+        <v>2.393276531069546</v>
       </c>
       <c r="C23">
-        <v>0.5799699601697625</v>
+        <v>0.7656657581748902</v>
       </c>
       <c r="D23">
-        <v>0.02044919612533769</v>
+        <v>0.01818462044032731</v>
       </c>
       <c r="E23">
-        <v>0.04276154938297694</v>
+        <v>2.556795207900194</v>
       </c>
       <c r="F23">
-        <v>2.297221494921473</v>
+        <v>2.032321550035348</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.9781435781094387</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.203484844361654</v>
+        <v>3.125291793851375</v>
       </c>
       <c r="L23">
-        <v>0.5332356448971467</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7022690556826419</v>
+        <v>0.9687722303904565</v>
       </c>
       <c r="O23">
-        <v>1.740242216764429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.424900920497919</v>
+        <v>2.020098185536568</v>
       </c>
       <c r="C24">
-        <v>0.4969951994868893</v>
+        <v>0.642320402170526</v>
       </c>
       <c r="D24">
-        <v>0.02345299825701774</v>
+        <v>0.02076238523747787</v>
       </c>
       <c r="E24">
-        <v>0.03982691026832264</v>
+        <v>2.125666614544116</v>
       </c>
       <c r="F24">
-        <v>2.000477558895966</v>
+        <v>1.768642637920067</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.8754840686092322</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.0178007402437</v>
+        <v>2.633634440882872</v>
       </c>
       <c r="L24">
-        <v>0.4541583361975654</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7680995759397931</v>
+        <v>0.9906408879659239</v>
       </c>
       <c r="O24">
-        <v>1.526163968563068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.594395053656797</v>
+        <v>1.631000715390257</v>
       </c>
       <c r="C25">
-        <v>0.4096676440577198</v>
+        <v>0.5152424633668318</v>
       </c>
       <c r="D25">
-        <v>0.02686845006621752</v>
+        <v>0.02360219601077063</v>
       </c>
       <c r="E25">
-        <v>0.03697029932806295</v>
+        <v>1.688809453759006</v>
       </c>
       <c r="F25">
-        <v>1.702251686647642</v>
+        <v>1.504271638717825</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.7751349109993342</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8236407388689315</v>
+        <v>2.122665458175788</v>
       </c>
       <c r="L25">
-        <v>0.3722596877837105</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8476840630005213</v>
+        <v>1.024182725290601</v>
       </c>
       <c r="O25">
-        <v>1.312722132332652</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.352751969760163</v>
+        <v>0.5322491666365465</v>
       </c>
       <c r="C2">
-        <v>0.425325102981617</v>
+        <v>0.1489415781938419</v>
       </c>
       <c r="D2">
-        <v>0.02573267461919304</v>
+        <v>0.04285421344128082</v>
       </c>
       <c r="E2">
-        <v>1.383913835254688</v>
+        <v>0.4085644444610779</v>
       </c>
       <c r="F2">
-        <v>1.322880243216929</v>
+        <v>1.326576608400103</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
-        <v>0.7082496450518647</v>
+        <v>0.9006924609901432</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.758310626606345</v>
+        <v>0.6678272695218368</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056002761250497</v>
+        <v>1.833030973039698</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.167926089405483</v>
+        <v>0.4838363878315874</v>
       </c>
       <c r="C3">
-        <v>0.3660457515748874</v>
+        <v>0.1334357997532152</v>
       </c>
       <c r="D3">
-        <v>0.02719763011942344</v>
+        <v>0.04310138727917856</v>
       </c>
       <c r="E3">
-        <v>1.184717039181464</v>
+        <v>0.3563942191804301</v>
       </c>
       <c r="F3">
-        <v>1.206548084302895</v>
+        <v>1.303922196792854</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
-        <v>0.6664758657260137</v>
+        <v>0.8946564304235238</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.516780462856701</v>
+        <v>0.6046018203161907</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.081408094022549</v>
+        <v>1.844413391541984</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.055888448842637</v>
+        <v>0.4543624287547061</v>
       </c>
       <c r="C4">
-        <v>0.3302896030945135</v>
+        <v>0.1239830996396734</v>
       </c>
       <c r="D4">
-        <v>0.02810679503073743</v>
+        <v>0.04325566482178989</v>
       </c>
       <c r="E4">
-        <v>1.065232577121506</v>
+        <v>0.3244724349155348</v>
       </c>
       <c r="F4">
-        <v>1.137891486450201</v>
+        <v>1.290810902224848</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
-        <v>0.6423459280939383</v>
+        <v>0.8914314546030013</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.370565546600005</v>
+        <v>0.5660951004766162</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.098727691421722</v>
+        <v>1.852011909364464</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.01054215450452</v>
+        <v>0.4424144269603971</v>
       </c>
       <c r="C5">
-        <v>0.3158564557342629</v>
+        <v>0.1201477732939793</v>
       </c>
       <c r="D5">
-        <v>0.02847964221957966</v>
+        <v>0.04331916815619952</v>
       </c>
       <c r="E5">
-        <v>1.01714018102291</v>
+        <v>0.3114897092474109</v>
       </c>
       <c r="F5">
-        <v>1.110545333201159</v>
+        <v>1.285667909521365</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
-        <v>0.6328632505435081</v>
+        <v>0.8902378216162035</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.311429154460569</v>
+        <v>0.5504814614170073</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.106194630483287</v>
+        <v>1.855261267521534</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.003029670730626</v>
+        <v>0.4404342561145143</v>
       </c>
       <c r="C6">
-        <v>0.3134675135033547</v>
+        <v>0.1195119202905346</v>
       </c>
       <c r="D6">
-        <v>0.02854169374945759</v>
+        <v>0.04332975120342297</v>
       </c>
       <c r="E6">
-        <v>1.009187573097876</v>
+        <v>0.3093354223704381</v>
       </c>
       <c r="F6">
-        <v>1.10604089360497</v>
+        <v>1.284825972328449</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
-        <v>0.6313089520127733</v>
+        <v>0.8900468896575759</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.301634490566499</v>
+        <v>0.5478935266655469</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.107458563438392</v>
+        <v>1.855810044003213</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.055275705645869</v>
+        <v>0.4542010397815375</v>
       </c>
       <c r="C7">
-        <v>0.3300944244427058</v>
+        <v>0.1239313078258704</v>
       </c>
       <c r="D7">
-        <v>0.02811181392320705</v>
+        <v>0.04325651868078673</v>
       </c>
       <c r="E7">
-        <v>1.064581702243373</v>
+        <v>0.3242972443614462</v>
       </c>
       <c r="F7">
-        <v>1.137520209940192</v>
+        <v>1.290740733503497</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
-        <v>0.6422166622174856</v>
+        <v>0.8914148692330528</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.369766298319576</v>
+        <v>0.5658842140353499</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.098826766651754</v>
+        <v>1.852055112811797</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.288690050215024</v>
+        <v>0.5155039376268178</v>
       </c>
       <c r="C8">
-        <v>0.4047375538850133</v>
+        <v>0.1435808740338302</v>
       </c>
       <c r="D8">
-        <v>0.02623572612168878</v>
+        <v>0.04293891901645441</v>
       </c>
       <c r="E8">
-        <v>1.314574123019071</v>
+        <v>0.3905517577016724</v>
       </c>
       <c r="F8">
-        <v>1.282152738595045</v>
+        <v>1.318599092568803</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
-        <v>0.6935108547479558</v>
+        <v>0.8985111103451615</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.674549636743023</v>
+        <v>0.645961475150699</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.064390569340027</v>
+        <v>1.836828849818197</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.760585629103559</v>
+        <v>0.6377411981188743</v>
       </c>
       <c r="C9">
-        <v>0.5573915625789425</v>
+        <v>0.1826703475786928</v>
       </c>
       <c r="D9">
-        <v>0.0226388502786099</v>
+        <v>0.04233592847687717</v>
       </c>
       <c r="E9">
-        <v>1.832913693370685</v>
+        <v>0.5214642814763266</v>
       </c>
       <c r="F9">
-        <v>1.591021380866678</v>
+        <v>1.379608874740811</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
-        <v>0.8077319026522858</v>
+        <v>0.91626571309871</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.29265000646069</v>
+        <v>0.8055281737803739</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.011689708888682</v>
+        <v>1.811825996508432</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.12015634098691</v>
+        <v>0.7288270885583756</v>
       </c>
       <c r="C10">
-        <v>0.6752508557571275</v>
+        <v>0.2117565391003211</v>
       </c>
       <c r="D10">
-        <v>0.02005735309866896</v>
+        <v>0.0419048426121611</v>
       </c>
       <c r="E10">
-        <v>2.240063428200258</v>
+        <v>0.6184056745955644</v>
       </c>
       <c r="F10">
-        <v>1.83842434333117</v>
+        <v>1.428388380223979</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
-        <v>0.9024294172590928</v>
+        <v>0.9316821761194163</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.765306337788758</v>
+        <v>0.9243815531401083</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.9838461845581321</v>
+        <v>1.796442202010823</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.287621911872691</v>
+        <v>0.7705524616292223</v>
       </c>
       <c r="C11">
-        <v>0.7305974938483928</v>
+        <v>0.225074548946111</v>
       </c>
       <c r="D11">
-        <v>0.01890010608673176</v>
+        <v>0.04171129564396914</v>
       </c>
       <c r="E11">
-        <v>2.433480733714745</v>
+        <v>0.6627068190713601</v>
       </c>
       <c r="F11">
-        <v>1.956736033600066</v>
+        <v>1.451453276089879</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
-        <v>0.9484888594976866</v>
+        <v>0.9392177479239479</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.985934422621654</v>
+        <v>0.9788196776068503</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.974017338186755</v>
+        <v>1.790097694592887</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.351702118345827</v>
+        <v>0.7863951258755719</v>
       </c>
       <c r="C12">
-        <v>0.7518527335341219</v>
+        <v>0.230130628851299</v>
       </c>
       <c r="D12">
-        <v>0.01846480887337076</v>
+        <v>0.04163837139436311</v>
       </c>
       <c r="E12">
-        <v>2.508151239321322</v>
+        <v>0.6795142584739011</v>
       </c>
       <c r="F12">
-        <v>2.002494032145364</v>
+        <v>1.460314252152386</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
-        <v>0.9664208735032673</v>
+        <v>0.9421469536610942</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.070440536260179</v>
+        <v>0.9994884738221401</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.9707498719842107</v>
+        <v>1.787789673025358</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.33786992030474</v>
+        <v>0.7829812413673949</v>
       </c>
       <c r="C13">
-        <v>0.747261009210888</v>
+        <v>0.2290411342740128</v>
       </c>
       <c r="D13">
-        <v>0.0185584188179293</v>
+        <v>0.04165406057078069</v>
       </c>
       <c r="E13">
-        <v>2.492001713330097</v>
+        <v>0.6758930318469396</v>
       </c>
       <c r="F13">
-        <v>1.992594508012672</v>
+        <v>1.458400226884237</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
-        <v>0.9625360139122705</v>
+        <v>0.94151272416903</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.05219533347676</v>
+        <v>0.9950346511191128</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.9714325548867748</v>
+        <v>1.78828253538353</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.292879858809044</v>
+        <v>0.771854999203299</v>
       </c>
       <c r="C14">
-        <v>0.7323399317818087</v>
+        <v>0.225490256111442</v>
       </c>
       <c r="D14">
-        <v>0.018864232094713</v>
+        <v>0.04170528874826029</v>
       </c>
       <c r="E14">
-        <v>2.439593739219688</v>
+        <v>0.6640889302757529</v>
       </c>
       <c r="F14">
-        <v>1.960480625565623</v>
+        <v>1.452179726887422</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
-        <v>0.949953927268794</v>
+        <v>0.9394572164113413</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.992866625734166</v>
+        <v>0.9805190192857367</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.973739123376248</v>
+        <v>1.789905915284692</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.265412047845814</v>
+        <v>0.7650453609034571</v>
       </c>
       <c r="C15">
-        <v>0.7232405081721822</v>
+        <v>0.2233169244081239</v>
       </c>
       <c r="D15">
-        <v>0.01905194894475049</v>
+        <v>0.04173671539699875</v>
       </c>
       <c r="E15">
-        <v>2.407686330137238</v>
+        <v>0.6568627619730592</v>
       </c>
       <c r="F15">
-        <v>1.940938491295114</v>
+        <v>1.448386034050287</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
-        <v>0.9423128615162426</v>
+        <v>0.9382080253555216</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.956655839413116</v>
+        <v>0.9716348686935987</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.9752126430575316</v>
+        <v>1.790912605057358</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.109299067919096</v>
+        <v>0.7261061122512444</v>
       </c>
       <c r="C16">
-        <v>0.671672589767752</v>
+        <v>0.2108879509363248</v>
       </c>
       <c r="D16">
-        <v>0.0201333630351197</v>
+        <v>0.04191754280596705</v>
       </c>
       <c r="E16">
-        <v>2.227608487826942</v>
+        <v>0.6155147692807503</v>
       </c>
       <c r="F16">
-        <v>1.830818881614974</v>
+        <v>1.426898724295597</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
-        <v>0.8994843911825541</v>
+        <v>0.9312002668923895</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.751013247007563</v>
+        <v>0.9208314375738098</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.9845494490707694</v>
+        <v>1.79687002722315</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.014596484917831</v>
+        <v>0.702292741991613</v>
       </c>
       <c r="C17">
-        <v>0.6405127128535071</v>
+        <v>0.2032856243754395</v>
       </c>
       <c r="D17">
-        <v>0.02080144746885892</v>
+        <v>0.04202912926982361</v>
       </c>
       <c r="E17">
-        <v>2.119401423687918</v>
+        <v>0.5902026297404603</v>
       </c>
       <c r="F17">
-        <v>1.764825980828746</v>
+        <v>1.413941732251487</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
-        <v>0.8740153306814804</v>
+        <v>0.9270354288371649</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.626397707968408</v>
+        <v>0.8897608618557058</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.9910351284551098</v>
+        <v>1.800692491028158</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.960485659662965</v>
+        <v>0.6886231829302574</v>
       </c>
       <c r="C18">
-        <v>0.6227501645812197</v>
+        <v>0.1989210904336574</v>
       </c>
       <c r="D18">
-        <v>0.02118728553186244</v>
+        <v>0.04209355140873594</v>
       </c>
       <c r="E18">
-        <v>2.057918626317644</v>
+        <v>0.5756626194183525</v>
       </c>
       <c r="F18">
-        <v>1.727402898235979</v>
+        <v>1.406571498063172</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
-        <v>0.859642649456724</v>
+        <v>0.9246890778696013</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.555240378814034</v>
+        <v>0.8719247661937857</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.9950294520845944</v>
+        <v>1.802952565514758</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.942223464281852</v>
+        <v>0.6839995729816906</v>
       </c>
       <c r="C19">
-        <v>0.6167621721295973</v>
+        <v>0.1974447175531679</v>
       </c>
       <c r="D19">
-        <v>0.02131818166257737</v>
+        <v>0.04211540495472832</v>
       </c>
       <c r="E19">
-        <v>2.037224383242545</v>
+        <v>0.5707427856591494</v>
       </c>
       <c r="F19">
-        <v>1.714820262908262</v>
+        <v>1.404090165742616</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
-        <v>0.8548220418676706</v>
+        <v>0.9239030706131217</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.531232446099864</v>
+        <v>0.86589173404397</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.9964258760225562</v>
+        <v>1.803728334181017</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.024639807070514</v>
+        <v>0.7048248910092809</v>
       </c>
       <c r="C20">
-        <v>0.6438128739416413</v>
+        <v>0.2040940614680267</v>
       </c>
       <c r="D20">
-        <v>0.02073016288660146</v>
+        <v>0.04201722580507727</v>
       </c>
       <c r="E20">
-        <v>2.130840439551733</v>
+        <v>0.5928951798732243</v>
       </c>
       <c r="F20">
-        <v>1.771794877419751</v>
+        <v>1.415312502843079</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
-        <v>0.8766975241670849</v>
+        <v>0.9274736921075615</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.639608576563575</v>
+        <v>0.8930647615576675</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.9903170839611306</v>
+        <v>1.80027921516087</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.306075587978626</v>
+        <v>0.7751218978560814</v>
       </c>
       <c r="C21">
-        <v>0.7367141480643227</v>
+        <v>0.2265328835134994</v>
       </c>
       <c r="D21">
-        <v>0.01877432347642571</v>
+        <v>0.04169023180497788</v>
       </c>
       <c r="E21">
-        <v>2.45494630105658</v>
+        <v>0.6675552044231807</v>
       </c>
       <c r="F21">
-        <v>1.96988621124801</v>
+        <v>1.454003389171191</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
-        <v>0.953635750871598</v>
+        <v>0.9400589117188929</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.010265562038484</v>
+        <v>0.9847811324193572</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.9730488903738177</v>
+        <v>1.789426520291656</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.493943499123532</v>
+        <v>0.8213110909340458</v>
       </c>
       <c r="C22">
-        <v>0.7991871145813718</v>
+        <v>0.2412729701817113</v>
       </c>
       <c r="D22">
-        <v>0.01751345105596336</v>
+        <v>0.04147866647890108</v>
       </c>
       <c r="E22">
-        <v>2.675236551206098</v>
+        <v>0.7165349768227856</v>
       </c>
       <c r="F22">
-        <v>2.104994237268954</v>
+        <v>1.480029683914495</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
-        <v>1.006812238562333</v>
+        <v>0.9487252564709223</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.258187917584479</v>
+        <v>1.045039778079058</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.9644388030067859</v>
+        <v>1.782884750697917</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.393276531069546</v>
+        <v>0.7966363761136677</v>
       </c>
       <c r="C23">
-        <v>0.7656657581748902</v>
+        <v>0.2333989132148133</v>
       </c>
       <c r="D23">
-        <v>0.01818462044032731</v>
+        <v>0.04159138649898164</v>
       </c>
       <c r="E23">
-        <v>2.556795207900194</v>
+        <v>0.6903757731969336</v>
       </c>
       <c r="F23">
-        <v>2.032321550035348</v>
+        <v>1.466070957124074</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
-        <v>0.9781435781094387</v>
+        <v>0.9440593281664462</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.125291793851375</v>
+        <v>1.012849327666032</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.9687722303904565</v>
+        <v>1.786325620449375</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.020098185536568</v>
+        <v>0.7036800408634747</v>
       </c>
       <c r="C24">
-        <v>0.642320402170526</v>
+        <v>0.2037285479508171</v>
       </c>
       <c r="D24">
-        <v>0.02076238523747787</v>
+        <v>0.04202260652059486</v>
       </c>
       <c r="E24">
-        <v>2.125666614544116</v>
+        <v>0.5916778399362954</v>
       </c>
       <c r="F24">
-        <v>1.768642637920067</v>
+        <v>1.414692531722181</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
-        <v>0.8754840686092322</v>
+        <v>0.9272754035829394</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.633634440882872</v>
+        <v>0.891570985120552</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.9906408879659239</v>
+        <v>1.800465862557914</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.631000715390257</v>
+        <v>0.6044516289907449</v>
       </c>
       <c r="C25">
-        <v>0.5152424633668318</v>
+        <v>0.1720331571383724</v>
       </c>
       <c r="D25">
-        <v>0.02360219601077063</v>
+        <v>0.04249694873450682</v>
       </c>
       <c r="E25">
-        <v>1.688809453759006</v>
+        <v>0.4859270393275779</v>
       </c>
       <c r="F25">
-        <v>1.504271638717825</v>
+        <v>1.362414310711102</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
-        <v>0.7751349109993342</v>
+        <v>0.9110483733830392</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.122665458175788</v>
+        <v>0.7620821232949595</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.024182725290601</v>
+        <v>1.818067466884813</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5322491666365465</v>
+        <v>1.352751969760192</v>
       </c>
       <c r="C2">
-        <v>0.1489415781938419</v>
+        <v>0.4253251029814464</v>
       </c>
       <c r="D2">
-        <v>0.04285421344128082</v>
+        <v>0.02573267461919659</v>
       </c>
       <c r="E2">
-        <v>0.4085644444610779</v>
+        <v>1.383913835254688</v>
       </c>
       <c r="F2">
-        <v>1.326576608400103</v>
+        <v>1.322880243216929</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
-        <v>0.9006924609901432</v>
+        <v>0.7082496450518789</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6678272695218368</v>
+        <v>1.758310626606431</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.833030973039698</v>
+        <v>1.056002761250454</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4838363878315874</v>
+        <v>1.167926089405512</v>
       </c>
       <c r="C3">
-        <v>0.1334357997532152</v>
+        <v>0.3660457515747453</v>
       </c>
       <c r="D3">
-        <v>0.04310138727917856</v>
+        <v>0.02719763011930354</v>
       </c>
       <c r="E3">
-        <v>0.3563942191804301</v>
+        <v>1.184717039181422</v>
       </c>
       <c r="F3">
-        <v>1.303922196792854</v>
+        <v>1.206548084302867</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
-        <v>0.8946564304235238</v>
+        <v>0.6664758657259995</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6046018203161907</v>
+        <v>1.516780462856786</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.844413391541984</v>
+        <v>1.081408094022542</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4543624287547061</v>
+        <v>1.055888448842751</v>
       </c>
       <c r="C4">
-        <v>0.1239830996396734</v>
+        <v>0.330289603094343</v>
       </c>
       <c r="D4">
-        <v>0.04325566482178989</v>
+        <v>0.02810679503064861</v>
       </c>
       <c r="E4">
-        <v>0.3244724349155348</v>
+        <v>1.06523257712152</v>
       </c>
       <c r="F4">
-        <v>1.290810902224848</v>
+        <v>1.137891486450215</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
-        <v>0.8914314546030013</v>
+        <v>0.6423459280939383</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5660951004766162</v>
+        <v>1.370565546600005</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.852011909364464</v>
+        <v>1.098727691421715</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4424144269603971</v>
+        <v>1.010542154504435</v>
       </c>
       <c r="C5">
-        <v>0.1201477732939793</v>
+        <v>0.3158564557342629</v>
       </c>
       <c r="D5">
-        <v>0.04331916815619952</v>
+        <v>0.02847964221968446</v>
       </c>
       <c r="E5">
-        <v>0.3114897092474109</v>
+        <v>1.017140181022867</v>
       </c>
       <c r="F5">
-        <v>1.285667909521365</v>
+        <v>1.110545333201145</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
-        <v>0.8902378216162035</v>
+        <v>0.6328632505435152</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5504814614170073</v>
+        <v>1.311429154460455</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.855261267521534</v>
+        <v>1.106194630483273</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4404342561145143</v>
+        <v>1.003029670730541</v>
       </c>
       <c r="C6">
-        <v>0.1195119202905346</v>
+        <v>0.3134675135035252</v>
       </c>
       <c r="D6">
-        <v>0.04332975120342297</v>
+        <v>0.02854169374968318</v>
       </c>
       <c r="E6">
-        <v>0.3093354223704381</v>
+        <v>1.009187573097861</v>
       </c>
       <c r="F6">
-        <v>1.284825972328449</v>
+        <v>1.10604089360497</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
-        <v>0.8900468896575759</v>
+        <v>0.6313089520127875</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5478935266655469</v>
+        <v>1.301634490566414</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.855810044003213</v>
+        <v>1.107458563438463</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4542010397815375</v>
+        <v>1.055275705645897</v>
       </c>
       <c r="C7">
-        <v>0.1239313078258704</v>
+        <v>0.3300944244428479</v>
       </c>
       <c r="D7">
-        <v>0.04325651868078673</v>
+        <v>0.02811181392331363</v>
       </c>
       <c r="E7">
-        <v>0.3242972443614462</v>
+        <v>1.064581702243359</v>
       </c>
       <c r="F7">
-        <v>1.290740733503497</v>
+        <v>1.137520209940178</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
-        <v>0.8914148692330528</v>
+        <v>0.6422166622174643</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5658842140353499</v>
+        <v>1.369766298319661</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.852055112811797</v>
+        <v>1.09882676665179</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5155039376268178</v>
+        <v>1.288690050214967</v>
       </c>
       <c r="C8">
-        <v>0.1435808740338302</v>
+        <v>0.404737553884928</v>
       </c>
       <c r="D8">
-        <v>0.04293891901645441</v>
+        <v>0.02623572612159464</v>
       </c>
       <c r="E8">
-        <v>0.3905517577016724</v>
+        <v>1.314574123019113</v>
       </c>
       <c r="F8">
-        <v>1.318599092568803</v>
+        <v>1.282152738595045</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
-        <v>0.8985111103451615</v>
+        <v>0.6935108547479487</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.645961475150699</v>
+        <v>1.674549636743052</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.836828849818197</v>
+        <v>1.064390569339999</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6377411981188743</v>
+        <v>1.760585629103588</v>
       </c>
       <c r="C9">
-        <v>0.1826703475786928</v>
+        <v>0.5573915625788572</v>
       </c>
       <c r="D9">
-        <v>0.04233592847687717</v>
+        <v>0.02263885027871204</v>
       </c>
       <c r="E9">
-        <v>0.5214642814763266</v>
+        <v>1.832913693370685</v>
       </c>
       <c r="F9">
-        <v>1.379608874740811</v>
+        <v>1.591021380866678</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
-        <v>0.91626571309871</v>
+        <v>0.8077319026522858</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8055281737803739</v>
+        <v>2.292650006460661</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.811825996508432</v>
+        <v>1.011689708888667</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7288270885583756</v>
+        <v>2.120156340986739</v>
       </c>
       <c r="C10">
-        <v>0.2117565391003211</v>
+        <v>0.6752508557571275</v>
       </c>
       <c r="D10">
-        <v>0.0419048426121611</v>
+        <v>0.0200573530985686</v>
       </c>
       <c r="E10">
-        <v>0.6184056745955644</v>
+        <v>2.240063428200301</v>
       </c>
       <c r="F10">
-        <v>1.428388380223979</v>
+        <v>1.838424343331184</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
-        <v>0.9316821761194163</v>
+        <v>0.902429417259107</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.9243815531401083</v>
+        <v>2.765306337788616</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.796442202010823</v>
+        <v>0.9838461845581179</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7705524616292223</v>
+        <v>2.287621911872861</v>
       </c>
       <c r="C11">
-        <v>0.225074548946111</v>
+        <v>0.7305974938487054</v>
       </c>
       <c r="D11">
-        <v>0.04171129564396914</v>
+        <v>0.01890010608682768</v>
       </c>
       <c r="E11">
-        <v>0.6627068190713601</v>
+        <v>2.433480733714774</v>
       </c>
       <c r="F11">
-        <v>1.451453276089879</v>
+        <v>1.956736033600066</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
-        <v>0.9392177479239479</v>
+        <v>0.9484888594976866</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9788196776068503</v>
+        <v>2.985934422621568</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.790097694592887</v>
+        <v>0.9740173381868118</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7863951258755719</v>
+        <v>2.351702118345827</v>
       </c>
       <c r="C12">
-        <v>0.230130628851299</v>
+        <v>0.7518527335343208</v>
       </c>
       <c r="D12">
-        <v>0.04163837139436311</v>
+        <v>0.01846480887338409</v>
       </c>
       <c r="E12">
-        <v>0.6795142584739011</v>
+        <v>2.508151239321307</v>
       </c>
       <c r="F12">
-        <v>1.460314252152386</v>
+        <v>2.00249403214535</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I12">
-        <v>0.9421469536610942</v>
+        <v>0.9664208735032673</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9994884738221401</v>
+        <v>3.070440536260122</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.787789673025358</v>
+        <v>0.9707498719842107</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7829812413673949</v>
+        <v>2.337869920304797</v>
       </c>
       <c r="C13">
-        <v>0.2290411342740128</v>
+        <v>0.7472610092107175</v>
       </c>
       <c r="D13">
-        <v>0.04165406057078069</v>
+        <v>0.01855841881793729</v>
       </c>
       <c r="E13">
-        <v>0.6758930318469396</v>
+        <v>2.492001713330083</v>
       </c>
       <c r="F13">
-        <v>1.458400226884237</v>
+        <v>1.992594508012658</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
-        <v>0.94151272416903</v>
+        <v>0.9625360139122705</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9950346511191128</v>
+        <v>3.052195333476789</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.78828253538353</v>
+        <v>0.971432554886718</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.771854999203299</v>
+        <v>2.292879858808988</v>
       </c>
       <c r="C14">
-        <v>0.225490256111442</v>
+        <v>0.7323399317817518</v>
       </c>
       <c r="D14">
-        <v>0.04170528874826029</v>
+        <v>0.01886423209470234</v>
       </c>
       <c r="E14">
-        <v>0.6640889302757529</v>
+        <v>2.439593739219646</v>
       </c>
       <c r="F14">
-        <v>1.452179726887422</v>
+        <v>1.960480625565651</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
-        <v>0.9394572164113413</v>
+        <v>0.949953927268794</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9805190192857367</v>
+        <v>2.992866625734251</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.789905915284692</v>
+        <v>0.9737391233762338</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7650453609034571</v>
+        <v>2.265412047845871</v>
       </c>
       <c r="C15">
-        <v>0.2233169244081239</v>
+        <v>0.7232405081721254</v>
       </c>
       <c r="D15">
-        <v>0.04173671539699875</v>
+        <v>0.01905194894473983</v>
       </c>
       <c r="E15">
-        <v>0.6568627619730592</v>
+        <v>2.40768633013721</v>
       </c>
       <c r="F15">
-        <v>1.448386034050287</v>
+        <v>1.9409384912951</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
-        <v>0.9382080253555216</v>
+        <v>0.9423128615162568</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9716348686935987</v>
+        <v>2.956655839413202</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.790912605057358</v>
+        <v>0.9752126430575174</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7261061122512444</v>
+        <v>2.109299067919096</v>
       </c>
       <c r="C16">
-        <v>0.2108879509363248</v>
+        <v>0.6716725897680362</v>
       </c>
       <c r="D16">
-        <v>0.04191754280596705</v>
+        <v>0.02013336303535063</v>
       </c>
       <c r="E16">
-        <v>0.6155147692807503</v>
+        <v>2.22760848782687</v>
       </c>
       <c r="F16">
-        <v>1.426898724295597</v>
+        <v>1.83081888161496</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
-        <v>0.9312002668923895</v>
+        <v>0.8994843911825541</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.9208314375738098</v>
+        <v>2.751013247007592</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.79687002722315</v>
+        <v>0.9845494490707694</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.702292741991613</v>
+        <v>2.014596484917973</v>
       </c>
       <c r="C17">
-        <v>0.2032856243754395</v>
+        <v>0.6405127128534787</v>
       </c>
       <c r="D17">
-        <v>0.04202912926982361</v>
+        <v>0.02080144746863599</v>
       </c>
       <c r="E17">
-        <v>0.5902026297404603</v>
+        <v>2.119401423687933</v>
       </c>
       <c r="F17">
-        <v>1.413941732251487</v>
+        <v>1.764825980828732</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
-        <v>0.9270354288371649</v>
+        <v>0.8740153306814875</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8897608618557058</v>
+        <v>2.62639770796838</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.800692491028158</v>
+        <v>0.9910351284550956</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6886231829302574</v>
+        <v>1.960485659663021</v>
       </c>
       <c r="C18">
-        <v>0.1989210904336574</v>
+        <v>0.6227501645813049</v>
       </c>
       <c r="D18">
-        <v>0.04209355140873594</v>
+        <v>0.02118728553185356</v>
       </c>
       <c r="E18">
-        <v>0.5756626194183525</v>
+        <v>2.057918626317644</v>
       </c>
       <c r="F18">
-        <v>1.406571498063172</v>
+        <v>1.727402898235951</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
-        <v>0.9246890778696013</v>
+        <v>0.8596426494567453</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8719247661937857</v>
+        <v>2.555240378814062</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.802952565514758</v>
+        <v>0.9950294520845802</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6839995729816906</v>
+        <v>1.942223464281682</v>
       </c>
       <c r="C19">
-        <v>0.1974447175531679</v>
+        <v>0.6167621721295689</v>
       </c>
       <c r="D19">
-        <v>0.04211540495472832</v>
+        <v>0.02131818166245658</v>
       </c>
       <c r="E19">
-        <v>0.5707427856591494</v>
+        <v>2.037224383242588</v>
       </c>
       <c r="F19">
-        <v>1.404090165742616</v>
+        <v>1.714820262908262</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
-        <v>0.9239030706131217</v>
+        <v>0.8548220418676635</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.86589173404397</v>
+        <v>2.531232446099921</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.803728334181017</v>
+        <v>0.996425876022542</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.7048248910092809</v>
+        <v>2.024639807070486</v>
       </c>
       <c r="C20">
-        <v>0.2040940614680267</v>
+        <v>0.6438128739415845</v>
       </c>
       <c r="D20">
-        <v>0.04201722580507727</v>
+        <v>0.02073016288651353</v>
       </c>
       <c r="E20">
-        <v>0.5928951798732243</v>
+        <v>2.130840439551704</v>
       </c>
       <c r="F20">
-        <v>1.415312502843079</v>
+        <v>1.771794877419765</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
-        <v>0.9274736921075615</v>
+        <v>0.8766975241671062</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8930647615576675</v>
+        <v>2.639608576563489</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.80027921516087</v>
+        <v>0.9903170839612301</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7751218978560814</v>
+        <v>2.306075587978683</v>
       </c>
       <c r="C21">
-        <v>0.2265328835134994</v>
+        <v>0.7367141480643795</v>
       </c>
       <c r="D21">
-        <v>0.04169023180497788</v>
+        <v>0.01877432347632357</v>
       </c>
       <c r="E21">
-        <v>0.6675552044231807</v>
+        <v>2.45494630105658</v>
       </c>
       <c r="F21">
-        <v>1.454003389171191</v>
+        <v>1.969886211248024</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
-        <v>0.9400589117188929</v>
+        <v>0.953635750871598</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9847811324193572</v>
+        <v>3.010265562038484</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.789426520291656</v>
+        <v>0.9730488903738177</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8213110909340458</v>
+        <v>2.493943499123588</v>
       </c>
       <c r="C22">
-        <v>0.2412729701817113</v>
+        <v>0.7991871145816276</v>
       </c>
       <c r="D22">
-        <v>0.04147866647890108</v>
+        <v>0.01751345105596069</v>
       </c>
       <c r="E22">
-        <v>0.7165349768227856</v>
+        <v>2.675236551206112</v>
       </c>
       <c r="F22">
-        <v>1.480029683914495</v>
+        <v>2.104994237268969</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
-        <v>0.9487252564709223</v>
+        <v>1.006812238562333</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.045039778079058</v>
+        <v>3.258187917584507</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.782884750697917</v>
+        <v>0.9644388030067716</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7966363761136677</v>
+        <v>2.393276531069375</v>
       </c>
       <c r="C23">
-        <v>0.2333989132148133</v>
+        <v>0.7656657581746913</v>
       </c>
       <c r="D23">
-        <v>0.04159138649898164</v>
+        <v>0.01818462044042857</v>
       </c>
       <c r="E23">
-        <v>0.6903757731969336</v>
+        <v>2.556795207900208</v>
       </c>
       <c r="F23">
-        <v>1.466070957124074</v>
+        <v>2.032321550035348</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
-        <v>0.9440593281664462</v>
+        <v>0.9781435781094387</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.012849327666032</v>
+        <v>3.12529179385146</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.786325620449375</v>
+        <v>0.9687722303905275</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.7036800408634747</v>
+        <v>2.02009818553654</v>
       </c>
       <c r="C24">
-        <v>0.2037285479508171</v>
+        <v>0.6423204021702986</v>
       </c>
       <c r="D24">
-        <v>0.04202260652059486</v>
+        <v>0.02076238523748319</v>
       </c>
       <c r="E24">
-        <v>0.5916778399362954</v>
+        <v>2.125666614544102</v>
       </c>
       <c r="F24">
-        <v>1.414692531722181</v>
+        <v>1.768642637920095</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
-        <v>0.9272754035829394</v>
+        <v>0.875484068609218</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.891570985120552</v>
+        <v>2.633634440882929</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.800465862557914</v>
+        <v>0.9906408879659239</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6044516289907449</v>
+        <v>1.631000715390314</v>
       </c>
       <c r="C25">
-        <v>0.1720331571383724</v>
+        <v>0.5152424633669739</v>
       </c>
       <c r="D25">
-        <v>0.04249694873450682</v>
+        <v>0.02360219601078484</v>
       </c>
       <c r="E25">
-        <v>0.4859270393275779</v>
+        <v>1.688809453758978</v>
       </c>
       <c r="F25">
-        <v>1.362414310711102</v>
+        <v>1.504271638717825</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
-        <v>0.9110483733830392</v>
+        <v>0.7751349109993342</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7620821232949595</v>
+        <v>2.122665458175817</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.818067466884813</v>
+        <v>1.024182725290586</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.352751969760192</v>
+        <v>1.087604772788154</v>
       </c>
       <c r="C2">
-        <v>0.4253251029814464</v>
+        <v>0.1348220392131836</v>
       </c>
       <c r="D2">
-        <v>0.02573267461919659</v>
+        <v>0.07422950447637788</v>
       </c>
       <c r="E2">
-        <v>1.383913835254688</v>
+        <v>0.07956108561504394</v>
       </c>
       <c r="F2">
-        <v>1.322880243216929</v>
+        <v>0.5506150471238129</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.00145101803364267</v>
       </c>
       <c r="I2">
-        <v>0.7082496450518789</v>
+        <v>0.002494158000349245</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>1.758310626606431</v>
+        <v>0.4194442985450557</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.9398755140414892</v>
       </c>
       <c r="N2">
-        <v>1.056002761250454</v>
+        <v>0.2766363890154651</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.8806357921328054</v>
+      </c>
+      <c r="Q2">
+        <v>1.701565926026149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.167926089405512</v>
+        <v>0.9479725415004623</v>
       </c>
       <c r="C3">
-        <v>0.3660457515747453</v>
+        <v>0.1258619422892693</v>
       </c>
       <c r="D3">
-        <v>0.02719763011930354</v>
+        <v>0.06722124685919795</v>
       </c>
       <c r="E3">
-        <v>1.184717039181422</v>
+        <v>0.07278852127110369</v>
       </c>
       <c r="F3">
-        <v>1.206548084302867</v>
+        <v>0.5240601419638438</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.002469278822065268</v>
+      </c>
+      <c r="I3">
+        <v>0.003635412599342303</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0.6664758657259995</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
       <c r="K3">
-        <v>1.516780462856786</v>
+        <v>0.4142637241383795</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8189250485473565</v>
       </c>
       <c r="N3">
-        <v>1.081408094022542</v>
+        <v>0.2439441367401969</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.9089826991804344</v>
+      </c>
+      <c r="Q3">
+        <v>1.655090496645045</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.055888448842751</v>
+        <v>0.8618762220770577</v>
       </c>
       <c r="C4">
-        <v>0.330289603094343</v>
+        <v>0.1203777864984019</v>
       </c>
       <c r="D4">
-        <v>0.02810679503064861</v>
+        <v>0.06291168600657215</v>
       </c>
       <c r="E4">
-        <v>1.06523257712152</v>
+        <v>0.06859323404905382</v>
       </c>
       <c r="F4">
-        <v>1.137891486450215</v>
+        <v>0.5081804418714029</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.003259143418432697</v>
+      </c>
+      <c r="I4">
+        <v>0.004526778489195138</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0.6423459280939383</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
-        <v>1.370565546600005</v>
+        <v>0.4112636071813611</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.7445622529711926</v>
       </c>
       <c r="N4">
-        <v>1.098727691421715</v>
+        <v>0.2238829044584776</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.9269488193858013</v>
+      </c>
+      <c r="Q4">
+        <v>1.627771262513775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.010542154504435</v>
+        <v>0.8259715519662052</v>
       </c>
       <c r="C5">
-        <v>0.3158564557342629</v>
+        <v>0.118288181689536</v>
       </c>
       <c r="D5">
-        <v>0.02847964221968446</v>
+        <v>0.0612025792722406</v>
       </c>
       <c r="E5">
-        <v>1.017140181022867</v>
+        <v>0.06681882776460135</v>
       </c>
       <c r="F5">
-        <v>1.110545333201145</v>
+        <v>0.5014134680936522</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.003623216259816875</v>
+      </c>
+      <c r="I5">
+        <v>0.005013827334376941</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0.6328632505435152</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
       <c r="K5">
-        <v>1.311429154460455</v>
+        <v>0.4097232028207571</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7141818293745672</v>
       </c>
       <c r="N5">
-        <v>1.106194630483273</v>
+        <v>0.2157659559883029</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.9343298203583457</v>
+      </c>
+      <c r="Q5">
+        <v>1.615633251758553</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.003029670730541</v>
+        <v>0.8191144406675619</v>
       </c>
       <c r="C6">
-        <v>0.3134675135035252</v>
+        <v>0.1181171677284638</v>
       </c>
       <c r="D6">
-        <v>0.02854169374968318</v>
+        <v>0.06097893842477475</v>
       </c>
       <c r="E6">
-        <v>1.009187573097861</v>
+        <v>0.06645610391156609</v>
       </c>
       <c r="F6">
-        <v>1.10604089360497</v>
+        <v>0.4998093225627542</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.003689011088149119</v>
+      </c>
+      <c r="I6">
+        <v>0.005199661096065178</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0.6313089520127875</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
-        <v>1.301634490566414</v>
+        <v>0.4090280106686741</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7090771935694846</v>
       </c>
       <c r="N6">
-        <v>1.107458563438463</v>
+        <v>0.2144879889551419</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.9354696282402282</v>
+      </c>
+      <c r="Q6">
+        <v>1.6120473172044</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.055275705645897</v>
+        <v>0.8589546960979533</v>
       </c>
       <c r="C7">
-        <v>0.3300944244428479</v>
+        <v>0.1208314144884142</v>
       </c>
       <c r="D7">
-        <v>0.02811181392331363</v>
+        <v>0.06305401055166016</v>
       </c>
       <c r="E7">
-        <v>1.064581702243359</v>
+        <v>0.0683848499029267</v>
       </c>
       <c r="F7">
-        <v>1.137520209940178</v>
+        <v>0.5067599365431974</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.003271364819172895</v>
+      </c>
+      <c r="I7">
+        <v>0.004796284805415496</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0.6422166622174643</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
-        <v>1.369766298319661</v>
+        <v>0.4100363675337952</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.743992953250654</v>
       </c>
       <c r="N7">
-        <v>1.09882676665179</v>
+        <v>0.2239647987292699</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.9268033451421651</v>
+      </c>
+      <c r="Q7">
+        <v>1.623272234774603</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.288690050214967</v>
+        <v>1.036274782641925</v>
       </c>
       <c r="C8">
-        <v>0.404737553884928</v>
+        <v>0.1323752496954356</v>
       </c>
       <c r="D8">
-        <v>0.02623572612159464</v>
+        <v>0.07203606599983203</v>
       </c>
       <c r="E8">
-        <v>1.314574123019113</v>
+        <v>0.07698875875070854</v>
       </c>
       <c r="F8">
-        <v>1.282152738595045</v>
+        <v>0.5396100467950262</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.001773803236113758</v>
+      </c>
+      <c r="I8">
+        <v>0.003162588623150775</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0.6935108547479487</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
       <c r="K8">
-        <v>1.674549636743052</v>
+        <v>0.4160300509465138</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.897973076501529</v>
       </c>
       <c r="N8">
-        <v>1.064390569339999</v>
+        <v>0.2656165857251693</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.8900241029118829</v>
+      </c>
+      <c r="Q8">
+        <v>1.67956146534641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.760585629103588</v>
+        <v>1.385664568188076</v>
       </c>
       <c r="C9">
-        <v>0.5573915625788572</v>
+        <v>0.1543683434806127</v>
       </c>
       <c r="D9">
-        <v>0.02263885027871204</v>
+        <v>0.08932044539561446</v>
       </c>
       <c r="E9">
-        <v>1.832913693370685</v>
+        <v>0.09391523108398658</v>
       </c>
       <c r="F9">
-        <v>1.591021380866678</v>
+        <v>0.610017346306293</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>0.000212656577338155</v>
+      </c>
+      <c r="I9">
+        <v>0.001156094391831175</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0.8077319026522858</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
       <c r="K9">
-        <v>2.292650006460661</v>
+        <v>0.4314392774700586</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.199679065393411</v>
       </c>
       <c r="N9">
-        <v>1.011689708888667</v>
+        <v>0.3471321975414838</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.8228396384671512</v>
+      </c>
+      <c r="Q9">
+        <v>1.8079290799962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.120156340986739</v>
+        <v>1.629035989949699</v>
       </c>
       <c r="C10">
-        <v>0.6752508557571275</v>
+        <v>0.1727629318879664</v>
       </c>
       <c r="D10">
-        <v>0.0200573530985686</v>
+        <v>0.1030113194155646</v>
       </c>
       <c r="E10">
-        <v>2.240063428200301</v>
+        <v>0.1012489080118719</v>
       </c>
       <c r="F10">
-        <v>1.838424343331184</v>
+        <v>0.657056006068224</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.0001971447363149359</v>
+      </c>
+      <c r="I10">
+        <v>0.0009066823990959705</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0.902429417259107</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
       <c r="K10">
-        <v>2.765306337788616</v>
+        <v>0.4379172591931422</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.418992158313216</v>
       </c>
       <c r="N10">
-        <v>0.9838461845581179</v>
+        <v>0.3894769965907159</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7761974067991861</v>
+      </c>
+      <c r="Q10">
+        <v>1.886057833426747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.287621911872861</v>
+        <v>1.642891119490059</v>
       </c>
       <c r="C11">
-        <v>0.7305974938487054</v>
+        <v>0.1988533389618823</v>
       </c>
       <c r="D11">
-        <v>0.01890010608682768</v>
+        <v>0.1177127513966099</v>
       </c>
       <c r="E11">
-        <v>2.433480733714774</v>
+        <v>0.06842674736229881</v>
       </c>
       <c r="F11">
-        <v>1.956736033600066</v>
+        <v>0.620315782071664</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.01875443262810705</v>
+      </c>
+      <c r="I11">
+        <v>0.001429893653413394</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0.9484888594976866</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
-        <v>2.985934422621568</v>
+        <v>0.3950637019489385</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.498247300365591</v>
       </c>
       <c r="N11">
-        <v>0.9740173381868118</v>
+        <v>0.2685015478972446</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7583019497793462</v>
+      </c>
+      <c r="Q11">
+        <v>1.736120882792193</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.351702118345827</v>
+        <v>1.606370254760606</v>
       </c>
       <c r="C12">
-        <v>0.7518527335343208</v>
+        <v>0.2185405991737355</v>
       </c>
       <c r="D12">
-        <v>0.01846480887338409</v>
+        <v>0.1275254574254632</v>
       </c>
       <c r="E12">
-        <v>2.508151239321307</v>
+        <v>0.04796011243354315</v>
       </c>
       <c r="F12">
-        <v>2.00249403214535</v>
+        <v>0.5816634297990149</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.02672462365057982</v>
+        <v>0.05741997049327807</v>
       </c>
       <c r="I12">
-        <v>0.9664208735032673</v>
+        <v>0.001430355630508195</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>3.070440536260122</v>
+        <v>0.3611552361980905</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.518643643763255</v>
       </c>
       <c r="N12">
-        <v>0.9707498719842107</v>
+        <v>0.1770421221591079</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.75855161321563</v>
+      </c>
+      <c r="Q12">
+        <v>1.602842826582076</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.337869920304797</v>
+        <v>1.525373537319467</v>
       </c>
       <c r="C13">
-        <v>0.7472610092107175</v>
+        <v>0.2349501098133402</v>
       </c>
       <c r="D13">
-        <v>0.01855841881793729</v>
+        <v>0.1343010447585726</v>
       </c>
       <c r="E13">
-        <v>2.492001713330083</v>
+        <v>0.03547919713491954</v>
       </c>
       <c r="F13">
-        <v>1.992594508012658</v>
+        <v>0.5371329525084434</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1131698096363465</v>
+      </c>
+      <c r="I13">
+        <v>0.001388667742496352</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0.9625360139122705</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
       <c r="K13">
-        <v>3.052195333476789</v>
+        <v>0.330233984149892</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.494446945780993</v>
       </c>
       <c r="N13">
-        <v>0.971432554886718</v>
+        <v>0.1036052535516134</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.7716567412418662</v>
+      </c>
+      <c r="Q13">
+        <v>1.467632152590397</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.292879858808988</v>
+        <v>1.448271920645396</v>
       </c>
       <c r="C14">
-        <v>0.7323399317817518</v>
+        <v>0.2453456221178953</v>
       </c>
       <c r="D14">
-        <v>0.01886423209470234</v>
+        <v>0.1377391099829737</v>
       </c>
       <c r="E14">
-        <v>2.439593739219646</v>
+        <v>0.0314950389335244</v>
       </c>
       <c r="F14">
-        <v>1.960480625565651</v>
+        <v>0.5032598537057567</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1625297942052271</v>
+      </c>
+      <c r="I14">
+        <v>0.00144095652914622</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0.949953927268794</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
       <c r="K14">
-        <v>2.992866625734251</v>
+        <v>0.3100531996778528</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.457332096447232</v>
       </c>
       <c r="N14">
-        <v>0.9737391233762338</v>
+        <v>0.06343490292876908</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.7871220128682523</v>
+      </c>
+      <c r="Q14">
+        <v>1.372216315627426</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.265412047845871</v>
+        <v>1.419334218406306</v>
       </c>
       <c r="C15">
-        <v>0.7232405081721254</v>
+        <v>0.2471676092141166</v>
       </c>
       <c r="D15">
-        <v>0.01905194894473983</v>
+        <v>0.1379215934657481</v>
       </c>
       <c r="E15">
-        <v>2.40768633013721</v>
+        <v>0.0311200559951883</v>
       </c>
       <c r="F15">
-        <v>1.9409384912951</v>
+        <v>0.4933362681541809</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1750478836076326</v>
+      </c>
+      <c r="I15">
+        <v>0.001571550724950299</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0.9423128615162568</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
       <c r="K15">
-        <v>2.956655839413202</v>
+        <v>0.30524881724984</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.438800863141864</v>
       </c>
       <c r="N15">
-        <v>0.9752126430575174</v>
+        <v>0.05502173189043091</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.7930222545197978</v>
+      </c>
+      <c r="Q15">
+        <v>1.346970363646193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.109299067919096</v>
+        <v>1.331737385851852</v>
       </c>
       <c r="C16">
-        <v>0.6716725897680362</v>
+        <v>0.2355998763273419</v>
       </c>
       <c r="D16">
-        <v>0.02013336303535063</v>
+        <v>0.1304768734930093</v>
       </c>
       <c r="E16">
-        <v>2.22760848782687</v>
+        <v>0.0307690991377445</v>
       </c>
       <c r="F16">
-        <v>1.83081888161496</v>
+        <v>0.4815551751514207</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.1623680912958037</v>
+      </c>
+      <c r="I16">
+        <v>0.001795264614131931</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0.8994843911825541</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
       <c r="K16">
-        <v>2.751013247007592</v>
+        <v>0.3082053672846001</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.349425943575767</v>
       </c>
       <c r="N16">
-        <v>0.9845494490707694</v>
+        <v>0.05400975132845431</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.8078931606662536</v>
+      </c>
+      <c r="Q16">
+        <v>1.338774367584207</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.014596484917973</v>
+        <v>1.305170721022989</v>
       </c>
       <c r="C17">
-        <v>0.6405127128534787</v>
+        <v>0.2211469187191284</v>
       </c>
       <c r="D17">
-        <v>0.02080144746863599</v>
+        <v>0.1229610694247043</v>
       </c>
       <c r="E17">
-        <v>2.119401423687933</v>
+        <v>0.03178873294636642</v>
       </c>
       <c r="F17">
-        <v>1.764825980828732</v>
+        <v>0.4904495562753937</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1246312513470116</v>
+      </c>
+      <c r="I17">
+        <v>0.001975080983516619</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0.8740153306814875</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
       <c r="K17">
-        <v>2.62639770796838</v>
+        <v>0.3209872134372169</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.30070320162821</v>
       </c>
       <c r="N17">
-        <v>0.9910351284550956</v>
+        <v>0.07242660255553091</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.8111505704573894</v>
+      </c>
+      <c r="Q17">
+        <v>1.382770681122423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.960485659663021</v>
+        <v>1.329988373912755</v>
       </c>
       <c r="C18">
-        <v>0.6227501645813049</v>
+        <v>0.2029362328418785</v>
       </c>
       <c r="D18">
-        <v>0.02118728553185356</v>
+        <v>0.1145769247431829</v>
       </c>
       <c r="E18">
-        <v>2.057918626317644</v>
+        <v>0.03831992015865371</v>
       </c>
       <c r="F18">
-        <v>1.727402898235951</v>
+        <v>0.5193616062902819</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07179394366799841</v>
+      </c>
+      <c r="I18">
+        <v>0.001786511234577404</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0.8596426494567453</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
-        <v>2.555240378814062</v>
+        <v>0.3454270690602925</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.28127511843698</v>
       </c>
       <c r="N18">
-        <v>0.9950294520845802</v>
+        <v>0.1195979311088919</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8069107641296434</v>
+      </c>
+      <c r="Q18">
+        <v>1.481644742212225</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.942223464281682</v>
+        <v>1.390247415205096</v>
       </c>
       <c r="C19">
-        <v>0.6167621721295689</v>
+        <v>0.1859248081129152</v>
       </c>
       <c r="D19">
-        <v>0.02131818166245658</v>
+        <v>0.1067803379268</v>
       </c>
       <c r="E19">
-        <v>2.037224383242588</v>
+        <v>0.05496693174839606</v>
       </c>
       <c r="F19">
-        <v>1.714820262908262</v>
+        <v>0.5608121058133122</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.026457607787016</v>
+      </c>
+      <c r="I19">
+        <v>0.001850255575793547</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0.8548220418676635</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
       <c r="K19">
-        <v>2.531232446099921</v>
+        <v>0.3773998912215397</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.28634859443136</v>
       </c>
       <c r="N19">
-        <v>0.996425876022542</v>
+        <v>0.2019839753642287</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.8011287804984875</v>
+      </c>
+      <c r="Q19">
+        <v>1.614630909347966</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.024639807070486</v>
+        <v>1.556988700143961</v>
       </c>
       <c r="C20">
-        <v>0.6438128739415845</v>
+        <v>0.1695920065781991</v>
       </c>
       <c r="D20">
-        <v>0.02073016288651353</v>
+        <v>0.09999123243047592</v>
       </c>
       <c r="E20">
-        <v>2.130840439551704</v>
+        <v>0.09855983134810842</v>
       </c>
       <c r="F20">
-        <v>1.771794877419765</v>
+        <v>0.6401255693849848</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.0001210577063170959</v>
+      </c>
+      <c r="I20">
+        <v>0.001691055111816553</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0.8766975241671062</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
       <c r="K20">
-        <v>2.639608576563489</v>
+        <v>0.4322449710013139</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.360763521622687</v>
       </c>
       <c r="N20">
-        <v>0.9903170839612301</v>
+        <v>0.3782038813322828</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7878958069012123</v>
+      </c>
+      <c r="Q20">
+        <v>1.850823256240176</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.306075587978683</v>
+        <v>1.761304622713936</v>
       </c>
       <c r="C21">
-        <v>0.7367141480643795</v>
+        <v>0.180865570030619</v>
       </c>
       <c r="D21">
-        <v>0.01877432347632357</v>
+        <v>0.1090240178334199</v>
       </c>
       <c r="E21">
-        <v>2.45494630105658</v>
+        <v>0.11178838225484</v>
       </c>
       <c r="F21">
-        <v>1.969886211248024</v>
+        <v>0.688200123846471</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.000182442640695335</v>
+      </c>
+      <c r="I21">
+        <v>0.001695301781723835</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0.953635750871598</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
       <c r="K21">
-        <v>3.010265562038484</v>
+        <v>0.44654028351043</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.532822207927467</v>
       </c>
       <c r="N21">
-        <v>0.9730488903738177</v>
+        <v>0.4383481802546783</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.753669794078573</v>
+      </c>
+      <c r="Q21">
+        <v>1.948947519348337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.493943499123588</v>
+        <v>1.892536108932006</v>
       </c>
       <c r="C22">
-        <v>0.7991871145816276</v>
+        <v>0.1885375412850578</v>
       </c>
       <c r="D22">
-        <v>0.01751345105596069</v>
+        <v>0.1151681715638873</v>
       </c>
       <c r="E22">
-        <v>2.675236551206112</v>
+        <v>0.1181842617342106</v>
       </c>
       <c r="F22">
-        <v>2.104994237268969</v>
+        <v>0.7185676013407374</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.0005126487525417556</v>
+      </c>
+      <c r="I22">
+        <v>0.001625041009376105</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>1.006812238562333</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
       <c r="K22">
-        <v>3.258187917584507</v>
+        <v>0.4549565440025134</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.644464426478834</v>
       </c>
       <c r="N22">
-        <v>0.9644388030067716</v>
+        <v>0.4683738900685483</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.7318885934867865</v>
+      </c>
+      <c r="Q22">
+        <v>2.009440777515124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.393276531069375</v>
+        <v>1.825490742545014</v>
       </c>
       <c r="C23">
-        <v>0.7656657581746913</v>
+        <v>0.1838231874340579</v>
       </c>
       <c r="D23">
-        <v>0.01818462044042857</v>
+        <v>0.1116817014045495</v>
       </c>
       <c r="E23">
-        <v>2.556795207900208</v>
+        <v>0.1149911528431886</v>
       </c>
       <c r="F23">
-        <v>2.032321550035348</v>
+        <v>0.7038654160709399</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.000318471282680699</v>
+      </c>
+      <c r="I23">
+        <v>0.001339378228665922</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0.9781435781094387</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
-        <v>3.12529179385146</v>
+        <v>0.4518364284693064</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.58507221321878</v>
       </c>
       <c r="N23">
-        <v>0.9687722303905275</v>
+        <v>0.4521050567736182</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.7435487518564248</v>
+      </c>
+      <c r="Q23">
+        <v>1.982046096134326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.02009818553654</v>
+        <v>1.566557768454231</v>
       </c>
       <c r="C24">
-        <v>0.6423204021702986</v>
+        <v>0.167112903340211</v>
       </c>
       <c r="D24">
-        <v>0.02076238523748319</v>
+        <v>0.09882514170838874</v>
       </c>
       <c r="E24">
-        <v>2.125666614544102</v>
+        <v>0.1025234281133578</v>
       </c>
       <c r="F24">
-        <v>1.768642637920095</v>
+        <v>0.6469502010890977</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>6.946871788926501E-07</v>
+      </c>
+      <c r="I24">
+        <v>0.001192836211875381</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0.875484068609218</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
       <c r="K24">
-        <v>2.633634440882929</v>
+        <v>0.4383254305158744</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.360085369158867</v>
       </c>
       <c r="N24">
-        <v>0.9906408879659239</v>
+        <v>0.3910329272030424</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7888402267969434</v>
+      </c>
+      <c r="Q24">
+        <v>1.873739048090442</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.631000715390314</v>
+        <v>1.28691829264568</v>
       </c>
       <c r="C25">
-        <v>0.5152424633669739</v>
+        <v>0.1492869733437914</v>
       </c>
       <c r="D25">
-        <v>0.02360219601078484</v>
+        <v>0.08495287945387275</v>
       </c>
       <c r="E25">
-        <v>1.688809453758978</v>
+        <v>0.08902857367134942</v>
       </c>
       <c r="F25">
-        <v>1.504271638717825</v>
+        <v>0.5881503324979107</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>0.0004800433035354601</v>
+      </c>
+      <c r="I25">
+        <v>0.001958342370896204</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0.7751349109993342</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
-        <v>2.122665458175817</v>
+        <v>0.4249420592158302</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.117775912189217</v>
       </c>
       <c r="N25">
-        <v>1.024182725290586</v>
+        <v>0.3254014718859111</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8402338032277719</v>
+      </c>
+      <c r="Q25">
+        <v>1.764236286062413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_25/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.087604772788154</v>
+        <v>1.036119678530383</v>
       </c>
       <c r="C2">
-        <v>0.1348220392131836</v>
+        <v>0.1338319756405753</v>
       </c>
       <c r="D2">
-        <v>0.07422950447637788</v>
+        <v>0.07652734157959884</v>
       </c>
       <c r="E2">
-        <v>0.07956108561504394</v>
+        <v>0.07550934252897434</v>
       </c>
       <c r="F2">
-        <v>0.5506150471238129</v>
+        <v>0.5121519070387919</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.00145101803364267</v>
+        <v>0.0009882211849772116</v>
       </c>
       <c r="I2">
-        <v>0.002494158000349245</v>
+        <v>0.001757428717042764</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.4194442985450557</v>
+        <v>0.3768658723515301</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1813930778107569</v>
       </c>
       <c r="M2">
-        <v>0.9398755140414892</v>
+        <v>0.1071339095455546</v>
       </c>
       <c r="N2">
-        <v>0.2766363890154651</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9404129961391163</v>
       </c>
       <c r="P2">
-        <v>0.8806357921328054</v>
+        <v>0.2850466740317614</v>
       </c>
       <c r="Q2">
-        <v>1.701565926026149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8508916588767228</v>
+      </c>
+      <c r="S2">
+        <v>1.566071349403572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9479725415004623</v>
+        <v>0.9063858195743819</v>
       </c>
       <c r="C3">
-        <v>0.1258619422892693</v>
+        <v>0.1219792377915283</v>
       </c>
       <c r="D3">
-        <v>0.06722124685919795</v>
+        <v>0.06869611927974972</v>
       </c>
       <c r="E3">
-        <v>0.07278852127110369</v>
+        <v>0.06946969918369206</v>
       </c>
       <c r="F3">
-        <v>0.5240601419638438</v>
+        <v>0.4898637484955373</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.002469278822065268</v>
+        <v>0.001794393548959716</v>
       </c>
       <c r="I3">
-        <v>0.003635412599342303</v>
+        <v>0.002558598313346927</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.4142637241383795</v>
+        <v>0.3748650083053597</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1850580503228834</v>
       </c>
       <c r="M3">
-        <v>0.8189250485473565</v>
+        <v>0.1034131775267664</v>
       </c>
       <c r="N3">
-        <v>0.2439441367401969</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8200338467018184</v>
       </c>
       <c r="P3">
-        <v>0.9089826991804344</v>
+        <v>0.2516794466801997</v>
       </c>
       <c r="Q3">
-        <v>1.655090496645045</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8770031911486793</v>
+      </c>
+      <c r="S3">
+        <v>1.532545844730947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8618762220770577</v>
+        <v>0.8261894263069394</v>
       </c>
       <c r="C4">
-        <v>0.1203777864984019</v>
+        <v>0.1147873281792897</v>
       </c>
       <c r="D4">
-        <v>0.06291168600657215</v>
+        <v>0.06389449340624509</v>
       </c>
       <c r="E4">
-        <v>0.06859323404905382</v>
+        <v>0.06571635850896662</v>
       </c>
       <c r="F4">
-        <v>0.5081804418714029</v>
+        <v>0.4765132067142375</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.003259143418432697</v>
+        <v>0.002433376842933654</v>
       </c>
       <c r="I4">
-        <v>0.004526778489195138</v>
+        <v>0.003214671818632109</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.4112636071813611</v>
+        <v>0.3737455161817138</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1873396304056278</v>
       </c>
       <c r="M4">
-        <v>0.7445622529711926</v>
+        <v>0.1016865737397907</v>
       </c>
       <c r="N4">
-        <v>0.2238829044584776</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7459835828536256</v>
       </c>
       <c r="P4">
-        <v>0.9269488193858013</v>
+        <v>0.2312153864919395</v>
       </c>
       <c r="Q4">
-        <v>1.627771262513775</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.89363493130889</v>
+      </c>
+      <c r="S4">
+        <v>1.51290052540574</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8259715519662052</v>
+        <v>0.7926618101651854</v>
       </c>
       <c r="C5">
-        <v>0.118288181689536</v>
+        <v>0.1120447611658335</v>
       </c>
       <c r="D5">
-        <v>0.0612025792722406</v>
+        <v>0.06199007152309122</v>
       </c>
       <c r="E5">
-        <v>0.06681882776460135</v>
+        <v>0.06412178507433808</v>
       </c>
       <c r="F5">
-        <v>0.5014134680936522</v>
+        <v>0.4707683509813592</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.003623216259816875</v>
+        <v>0.002730619490608821</v>
       </c>
       <c r="I5">
-        <v>0.005013827334376941</v>
+        <v>0.003611290562635538</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.4097232028207571</v>
+        <v>0.3729782091263658</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1881105181912766</v>
       </c>
       <c r="M5">
-        <v>0.7141818293745672</v>
+        <v>0.1010350546240097</v>
       </c>
       <c r="N5">
-        <v>0.2157659559883029</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7157216910269852</v>
       </c>
       <c r="P5">
-        <v>0.9343298203583457</v>
+        <v>0.2229374941060343</v>
       </c>
       <c r="Q5">
-        <v>1.615633251758553</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.9005187399767109</v>
+      </c>
+      <c r="S5">
+        <v>1.503879162921109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8191144406675619</v>
+        <v>0.7862170382412046</v>
       </c>
       <c r="C6">
-        <v>0.1181171677284638</v>
+        <v>0.1117986713119521</v>
       </c>
       <c r="D6">
-        <v>0.06097893842477475</v>
+        <v>0.06173654766298853</v>
       </c>
       <c r="E6">
-        <v>0.06645610391156609</v>
+        <v>0.06379090035190771</v>
       </c>
       <c r="F6">
-        <v>0.4998093225627542</v>
+        <v>0.4693495023779661</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.003689011088149119</v>
+        <v>0.002784593408872604</v>
       </c>
       <c r="I6">
-        <v>0.005199661096065178</v>
+        <v>0.003797734951807463</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.4090280106686741</v>
+        <v>0.372440437325892</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1880360467411144</v>
       </c>
       <c r="M6">
-        <v>0.7090771935694846</v>
+        <v>0.1008276892077884</v>
       </c>
       <c r="N6">
-        <v>0.2144879889551419</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7106362934179202</v>
       </c>
       <c r="P6">
-        <v>0.9354696282402282</v>
+        <v>0.2216331661339979</v>
       </c>
       <c r="Q6">
-        <v>1.6120473172044</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.9016221710709988</v>
+      </c>
+      <c r="S6">
+        <v>1.500877754600907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8589546960979533</v>
+        <v>0.8233578970771305</v>
       </c>
       <c r="C7">
-        <v>0.1208314144884142</v>
+        <v>0.1153240697752835</v>
       </c>
       <c r="D7">
-        <v>0.06305401055166016</v>
+        <v>0.06404085492781064</v>
       </c>
       <c r="E7">
-        <v>0.0683848499029267</v>
+        <v>0.06551640557035121</v>
       </c>
       <c r="F7">
-        <v>0.5067599365431974</v>
+        <v>0.475154667875259</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.003271364819172895</v>
+        <v>0.002443603188526433</v>
       </c>
       <c r="I7">
-        <v>0.004796284805415496</v>
+        <v>0.003524267627120103</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.4100363675337952</v>
+        <v>0.3726144090607413</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1868114352163666</v>
       </c>
       <c r="M7">
-        <v>0.743992953250654</v>
+        <v>0.1013708305579275</v>
       </c>
       <c r="N7">
-        <v>0.2239647987292699</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7454162111003626</v>
       </c>
       <c r="P7">
-        <v>0.9268033451421651</v>
+        <v>0.2312956785509073</v>
       </c>
       <c r="Q7">
-        <v>1.623272234774603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8936124335728479</v>
+      </c>
+      <c r="S7">
+        <v>1.508646028974127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.036274782641925</v>
+        <v>0.9883271142436456</v>
       </c>
       <c r="C8">
-        <v>0.1323752496954356</v>
+        <v>0.1305098094471973</v>
       </c>
       <c r="D8">
-        <v>0.07203606599983203</v>
+        <v>0.07405728651018961</v>
       </c>
       <c r="E8">
-        <v>0.07698875875070854</v>
+        <v>0.07320053244443869</v>
       </c>
       <c r="F8">
-        <v>0.5396100467950262</v>
+        <v>0.5027088041122312</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.001773803236113758</v>
+        <v>0.001241061453807202</v>
       </c>
       <c r="I8">
-        <v>0.003162588623150775</v>
+        <v>0.002366208457663888</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.4160300509465138</v>
+        <v>0.3746903457966511</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1820030712239351</v>
       </c>
       <c r="M8">
-        <v>0.897973076501529</v>
+        <v>0.1052791938212323</v>
       </c>
       <c r="N8">
-        <v>0.2656165857251693</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8987168108475316</v>
       </c>
       <c r="P8">
-        <v>0.8900241029118829</v>
+        <v>0.2737930530022226</v>
       </c>
       <c r="Q8">
-        <v>1.67956146534641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8596939218818331</v>
+      </c>
+      <c r="S8">
+        <v>1.548891312111763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.385664568188076</v>
+        <v>1.311914960599552</v>
       </c>
       <c r="C9">
-        <v>0.1543683434806127</v>
+        <v>0.1600221256857708</v>
       </c>
       <c r="D9">
-        <v>0.08932044539561446</v>
+        <v>0.09346311394291007</v>
       </c>
       <c r="E9">
-        <v>0.09391523108398658</v>
+        <v>0.08824348165622808</v>
       </c>
       <c r="F9">
-        <v>0.610017346306293</v>
+        <v>0.5618865707353464</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.000212656577338155</v>
+        <v>8.668128762545635E-05</v>
       </c>
       <c r="I9">
-        <v>0.001156094391831175</v>
+        <v>0.001001930359993075</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.4314392774700586</v>
+        <v>0.3816565225570585</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1736796863502086</v>
       </c>
       <c r="M9">
-        <v>1.199679065393411</v>
+        <v>0.118034023799467</v>
       </c>
       <c r="N9">
-        <v>0.3471321975414838</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.198750557766004</v>
       </c>
       <c r="P9">
-        <v>0.8228396384671512</v>
+        <v>0.3570499122830597</v>
       </c>
       <c r="Q9">
-        <v>1.8079290799962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7981587491803772</v>
+      </c>
+      <c r="S9">
+        <v>1.643107061651989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.629035989949699</v>
+        <v>1.53677149787714</v>
       </c>
       <c r="C10">
-        <v>0.1727629318879664</v>
+        <v>0.1845372508135199</v>
       </c>
       <c r="D10">
-        <v>0.1030113194155646</v>
+        <v>0.108754896024486</v>
       </c>
       <c r="E10">
-        <v>0.1012489080118719</v>
+        <v>0.09444599975345369</v>
       </c>
       <c r="F10">
-        <v>0.657056006068224</v>
+        <v>0.601070747718623</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0001971447363149359</v>
+        <v>0.0002404920677929745</v>
       </c>
       <c r="I10">
-        <v>0.0009066823990959705</v>
+        <v>0.001087083936103461</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.4379172591931422</v>
+        <v>0.3825917242623795</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1660108968168004</v>
       </c>
       <c r="M10">
-        <v>1.418992158313216</v>
+        <v>0.128229111031029</v>
       </c>
       <c r="N10">
-        <v>0.3894769965907159</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.416661697702921</v>
       </c>
       <c r="P10">
-        <v>0.7761974067991861</v>
+        <v>0.4004045212913212</v>
       </c>
       <c r="Q10">
-        <v>1.886057833426747</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7567514216071487</v>
+      </c>
+      <c r="S10">
+        <v>1.697850078882652</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.642891119490059</v>
+        <v>1.554038722689228</v>
       </c>
       <c r="C11">
-        <v>0.1988533389618823</v>
+        <v>0.2147202017877419</v>
       </c>
       <c r="D11">
-        <v>0.1177127513966099</v>
+        <v>0.12390954076767</v>
       </c>
       <c r="E11">
-        <v>0.06842674736229881</v>
+        <v>0.06357229633665362</v>
       </c>
       <c r="F11">
-        <v>0.620315782071664</v>
+        <v>0.5681112964244406</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01875443262810705</v>
+        <v>0.01878324472506421</v>
       </c>
       <c r="I11">
-        <v>0.001429893653413394</v>
+        <v>0.001771394833572693</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.3950637019489385</v>
+        <v>0.3456251995113391</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1497512648493142</v>
       </c>
       <c r="M11">
-        <v>1.498247300365591</v>
+        <v>0.1178764259372187</v>
       </c>
       <c r="N11">
-        <v>0.2685015478972446</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.495947248789548</v>
       </c>
       <c r="P11">
-        <v>0.7583019497793462</v>
+        <v>0.2772939365788574</v>
       </c>
       <c r="Q11">
-        <v>1.736120882792193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7480111564468253</v>
+      </c>
+      <c r="S11">
+        <v>1.563542799513499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.606370254760606</v>
+        <v>1.524288098851798</v>
       </c>
       <c r="C12">
-        <v>0.2185405991737355</v>
+        <v>0.2359288350191235</v>
       </c>
       <c r="D12">
-        <v>0.1275254574254632</v>
+        <v>0.1336849949788785</v>
       </c>
       <c r="E12">
-        <v>0.04796011243354315</v>
+        <v>0.04480659283986199</v>
       </c>
       <c r="F12">
-        <v>0.5816634297990149</v>
+        <v>0.5341353143678447</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05741997049327807</v>
+        <v>0.05742849925864846</v>
       </c>
       <c r="I12">
-        <v>0.001430355630508195</v>
+        <v>0.001776926761099418</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.3611552361980905</v>
+        <v>0.3174065282313698</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1391298770663187</v>
       </c>
       <c r="M12">
-        <v>1.518643643763255</v>
+        <v>0.1077499592389728</v>
       </c>
       <c r="N12">
-        <v>0.1770421221591079</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.516688282812396</v>
       </c>
       <c r="P12">
-        <v>0.75855161321563</v>
+        <v>0.1839632356517313</v>
       </c>
       <c r="Q12">
-        <v>1.602842826582076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7538671185857808</v>
+      </c>
+      <c r="S12">
+        <v>1.447454948022568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.525373537319467</v>
+        <v>1.4530877431568</v>
       </c>
       <c r="C13">
-        <v>0.2349501098133402</v>
+        <v>0.2520596801067825</v>
       </c>
       <c r="D13">
-        <v>0.1343010447585726</v>
+        <v>0.1400467847270335</v>
       </c>
       <c r="E13">
-        <v>0.03547919713491954</v>
+        <v>0.03387853633239057</v>
       </c>
       <c r="F13">
-        <v>0.5371329525084434</v>
+        <v>0.4952851538860941</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1131698096363465</v>
+        <v>0.1131463473652303</v>
       </c>
       <c r="I13">
-        <v>0.001388667742496352</v>
+        <v>0.001694255914346243</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.330233984149892</v>
+        <v>0.2924298465871829</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1310417465997187</v>
       </c>
       <c r="M13">
-        <v>1.494446945780993</v>
+        <v>0.09684521238476407</v>
       </c>
       <c r="N13">
-        <v>0.1036052535516134</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.493102352538585</v>
       </c>
       <c r="P13">
-        <v>0.7716567412418662</v>
+        <v>0.1087788574375068</v>
       </c>
       <c r="Q13">
-        <v>1.467632152590397</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.7702921625696959</v>
+      </c>
+      <c r="S13">
+        <v>1.331801287405995</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.448271920645396</v>
+        <v>1.384124990142624</v>
       </c>
       <c r="C14">
-        <v>0.2453456221178953</v>
+        <v>0.2613880110015714</v>
       </c>
       <c r="D14">
-        <v>0.1377391099829737</v>
+        <v>0.1430179577505584</v>
       </c>
       <c r="E14">
-        <v>0.0314950389335244</v>
+        <v>0.0308556435598627</v>
       </c>
       <c r="F14">
-        <v>0.5032598537057567</v>
+        <v>0.4657756392831516</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1625297942052271</v>
+        <v>0.1624769387820635</v>
       </c>
       <c r="I14">
-        <v>0.00144095652914622</v>
+        <v>0.001708553179512684</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.3100531996778528</v>
+        <v>0.2764284379672972</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1263352061004284</v>
       </c>
       <c r="M14">
-        <v>1.457332096447232</v>
+        <v>0.08907102424836921</v>
       </c>
       <c r="N14">
-        <v>0.06343490292876908</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.456525210629422</v>
       </c>
       <c r="P14">
-        <v>0.7871220128682523</v>
+        <v>0.06748471199598072</v>
       </c>
       <c r="Q14">
-        <v>1.372216315627426</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.7869164072820425</v>
+      </c>
+      <c r="S14">
+        <v>1.250876472015207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.419334218406306</v>
+        <v>1.357797976752352</v>
       </c>
       <c r="C15">
-        <v>0.2471676092141166</v>
+        <v>0.2626472305572634</v>
       </c>
       <c r="D15">
-        <v>0.1379215934657481</v>
+        <v>0.1430170911937836</v>
       </c>
       <c r="E15">
-        <v>0.0311200559951883</v>
+        <v>0.03069704770981185</v>
       </c>
       <c r="F15">
-        <v>0.4933362681541809</v>
+        <v>0.4571401097380061</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1750478836076326</v>
+        <v>0.1749811438709656</v>
       </c>
       <c r="I15">
-        <v>0.001571550724950299</v>
+        <v>0.001839469004186967</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.30524881724984</v>
+        <v>0.2727414600454026</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1254433312528818</v>
       </c>
       <c r="M15">
-        <v>1.438800863141864</v>
+        <v>0.08694309822291046</v>
       </c>
       <c r="N15">
-        <v>0.05502173189043091</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.438177300763783</v>
       </c>
       <c r="P15">
-        <v>0.7930222545197978</v>
+        <v>0.05881149921951589</v>
       </c>
       <c r="Q15">
-        <v>1.346970363646193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7927334643750541</v>
+      </c>
+      <c r="S15">
+        <v>1.229744925662075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.331737385851852</v>
+        <v>1.275896484152838</v>
       </c>
       <c r="C16">
-        <v>0.2355998763273419</v>
+        <v>0.2482649563279864</v>
       </c>
       <c r="D16">
-        <v>0.1304768734930093</v>
+        <v>0.1349451724592114</v>
       </c>
       <c r="E16">
-        <v>0.0307690991377445</v>
+        <v>0.0303151452776782</v>
       </c>
       <c r="F16">
-        <v>0.4815551751514207</v>
+        <v>0.4473913526348952</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1623680912958037</v>
+        <v>0.1622242190063616</v>
       </c>
       <c r="I16">
-        <v>0.001795264614131931</v>
+        <v>0.001964600485253598</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.3082053672846001</v>
+        <v>0.2765715426607152</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1286233267656218</v>
       </c>
       <c r="M16">
-        <v>1.349425943575767</v>
+        <v>0.08543766092813776</v>
       </c>
       <c r="N16">
-        <v>0.05400975132845431</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.349285133734242</v>
       </c>
       <c r="P16">
-        <v>0.8078931606662536</v>
+        <v>0.0578108760543401</v>
       </c>
       <c r="Q16">
-        <v>1.338774367584207</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.8042793352873758</v>
+      </c>
+      <c r="S16">
+        <v>1.226830892717814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.305170721022989</v>
+        <v>1.249435167457733</v>
       </c>
       <c r="C17">
-        <v>0.2211469187191284</v>
+        <v>0.2323360189068353</v>
       </c>
       <c r="D17">
-        <v>0.1229610694247043</v>
+        <v>0.1272095651520857</v>
       </c>
       <c r="E17">
-        <v>0.03178873294636642</v>
+        <v>0.03086254036403868</v>
       </c>
       <c r="F17">
-        <v>0.4904495562753937</v>
+        <v>0.4555841661744182</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1246312513470116</v>
+        <v>0.1244418305758614</v>
       </c>
       <c r="I17">
-        <v>0.001975080983516619</v>
+        <v>0.002089685858372548</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.3209872134372169</v>
+        <v>0.2879123392635314</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1338391909049577</v>
       </c>
       <c r="M17">
-        <v>1.30070320162821</v>
+        <v>0.08816440133196757</v>
       </c>
       <c r="N17">
-        <v>0.07242660255553091</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.30064475182067</v>
       </c>
       <c r="P17">
-        <v>0.8111505704573894</v>
+        <v>0.07679815571098203</v>
       </c>
       <c r="Q17">
-        <v>1.382770681122423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.8045545700263048</v>
+      </c>
+      <c r="S17">
+        <v>1.267443811448018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.329988373912755</v>
+        <v>1.269541600535376</v>
       </c>
       <c r="C18">
-        <v>0.2029362328418785</v>
+        <v>0.2133306083505886</v>
       </c>
       <c r="D18">
-        <v>0.1145769247431829</v>
+        <v>0.118892849147457</v>
       </c>
       <c r="E18">
-        <v>0.03831992015865371</v>
+        <v>0.03639339473932424</v>
       </c>
       <c r="F18">
-        <v>0.5193616062902819</v>
+        <v>0.4812730101497706</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07179394366799841</v>
+        <v>0.07160077311979762</v>
       </c>
       <c r="I18">
-        <v>0.001786511234577404</v>
+        <v>0.001839857426793934</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.3454270690602925</v>
+        <v>0.3085345445266903</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.142124528735831</v>
       </c>
       <c r="M18">
-        <v>1.28127511843698</v>
+        <v>0.09513935226696191</v>
       </c>
       <c r="N18">
-        <v>0.1195979311088919</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.280979937035738</v>
       </c>
       <c r="P18">
-        <v>0.8069107641296434</v>
+        <v>0.1251682817304882</v>
       </c>
       <c r="Q18">
-        <v>1.481644742212225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.796800319594702</v>
+      </c>
+      <c r="S18">
+        <v>1.354619833689483</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.390247415205096</v>
+        <v>1.321561346794937</v>
       </c>
       <c r="C19">
-        <v>0.1859248081129152</v>
+        <v>0.1959669867299283</v>
       </c>
       <c r="D19">
-        <v>0.1067803379268</v>
+        <v>0.1113570790015004</v>
       </c>
       <c r="E19">
-        <v>0.05496693174839606</v>
+        <v>0.05152785971760387</v>
       </c>
       <c r="F19">
-        <v>0.5608121058133122</v>
+        <v>0.5176356042782544</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.026457607787016</v>
+        <v>0.02630968199297001</v>
       </c>
       <c r="I19">
-        <v>0.001850255575793547</v>
+        <v>0.00195585979293611</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.3773998912215397</v>
+        <v>0.3348994412407542</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1521762083856153</v>
       </c>
       <c r="M19">
-        <v>1.28634859443136</v>
+        <v>0.104904555940152</v>
       </c>
       <c r="N19">
-        <v>0.2019839753642287</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.285577505896185</v>
       </c>
       <c r="P19">
-        <v>0.8011287804984875</v>
+        <v>0.209320797168786</v>
       </c>
       <c r="Q19">
-        <v>1.614630909347966</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7869562539913595</v>
+      </c>
+      <c r="S19">
+        <v>1.469691611452106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.556988700143961</v>
+        <v>1.469959349723979</v>
       </c>
       <c r="C20">
-        <v>0.1695920065781991</v>
+        <v>0.1801211490063395</v>
       </c>
       <c r="D20">
-        <v>0.09999123243047592</v>
+        <v>0.1053361501018202</v>
       </c>
       <c r="E20">
-        <v>0.09855983134810842</v>
+        <v>0.09209286421576124</v>
       </c>
       <c r="F20">
-        <v>0.6401255693849848</v>
+        <v>0.5864742011080821</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0001210577063170959</v>
+        <v>0.0001258721175432242</v>
       </c>
       <c r="I20">
-        <v>0.001691055111816553</v>
+        <v>0.00194855208211564</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.4322449710013139</v>
+        <v>0.3787988599868548</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1667116914474676</v>
       </c>
       <c r="M20">
-        <v>1.360763521622687</v>
+        <v>0.124024230637783</v>
       </c>
       <c r="N20">
-        <v>0.3782038813322828</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.358828736595171</v>
       </c>
       <c r="P20">
-        <v>0.7878958069012123</v>
+        <v>0.3888569321089648</v>
       </c>
       <c r="Q20">
-        <v>1.850823256240176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7676354991783043</v>
+      </c>
+      <c r="S20">
+        <v>1.669832071019556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.761304622713936</v>
+        <v>1.657601053621164</v>
       </c>
       <c r="C21">
-        <v>0.180865570030619</v>
+        <v>0.1959386249472175</v>
       </c>
       <c r="D21">
-        <v>0.1090240178334199</v>
+        <v>0.1156623248971727</v>
       </c>
       <c r="E21">
-        <v>0.11178838225484</v>
+        <v>0.1039832487593664</v>
       </c>
       <c r="F21">
-        <v>0.688200123846471</v>
+        <v>0.6270084793590058</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.000182442640695335</v>
+        <v>0.0002923386390427662</v>
       </c>
       <c r="I21">
-        <v>0.001695301781723835</v>
+        <v>0.002134381271524433</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.44654028351043</v>
+        <v>0.3871573425762129</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.163650490449978</v>
       </c>
       <c r="M21">
-        <v>1.532822207927467</v>
+        <v>0.1355685186307447</v>
       </c>
       <c r="N21">
-        <v>0.4383481802546783</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.529587702460162</v>
       </c>
       <c r="P21">
-        <v>0.753669794078573</v>
+        <v>0.4502668300431623</v>
       </c>
       <c r="Q21">
-        <v>1.948947519348337</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7361792227938331</v>
+      </c>
+      <c r="S21">
+        <v>1.744676895719408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.892536108932006</v>
+        <v>1.778306661653829</v>
       </c>
       <c r="C22">
-        <v>0.1885375412850578</v>
+        <v>0.2065601665721033</v>
       </c>
       <c r="D22">
-        <v>0.1151681715638873</v>
+        <v>0.122636862539494</v>
       </c>
       <c r="E22">
-        <v>0.1181842617342106</v>
+        <v>0.1096296575150468</v>
       </c>
       <c r="F22">
-        <v>0.7185676013407374</v>
+        <v>0.6526833464653521</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.0005126487525417556</v>
+        <v>0.0006596435311554405</v>
       </c>
       <c r="I22">
-        <v>0.001625041009376105</v>
+        <v>0.002079533956607982</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.4549565440025134</v>
+        <v>0.3919457152695216</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1613367299911843</v>
       </c>
       <c r="M22">
-        <v>1.644464426478834</v>
+        <v>0.1433556692156479</v>
       </c>
       <c r="N22">
-        <v>0.4683738900685483</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.640355645149441</v>
       </c>
       <c r="P22">
-        <v>0.7318885934867865</v>
+        <v>0.4809631521036835</v>
       </c>
       <c r="Q22">
-        <v>2.009440777515124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7164000890831108</v>
+      </c>
+      <c r="S22">
+        <v>1.790798923199162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.825490742545014</v>
+        <v>1.716794071618324</v>
       </c>
       <c r="C23">
-        <v>0.1838231874340579</v>
+        <v>0.2001086891825139</v>
       </c>
       <c r="D23">
-        <v>0.1116817014045495</v>
+        <v>0.1186948171498443</v>
       </c>
       <c r="E23">
-        <v>0.1149911528431886</v>
+        <v>0.1068265511549313</v>
       </c>
       <c r="F23">
-        <v>0.7038654160709399</v>
+        <v>0.640412446844536</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.000318471282680699</v>
+        <v>0.0004485069950201925</v>
       </c>
       <c r="I23">
-        <v>0.001339378228665922</v>
+        <v>0.001727997701380879</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.4518364284693064</v>
+        <v>0.3906227943459548</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1629915937691955</v>
       </c>
       <c r="M23">
-        <v>1.58507221321878</v>
+        <v>0.1396700624494684</v>
       </c>
       <c r="N23">
-        <v>0.4521050567736182</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.581433714984911</v>
       </c>
       <c r="P23">
-        <v>0.7435487518564248</v>
+        <v>0.464333914939175</v>
       </c>
       <c r="Q23">
-        <v>1.982046096134326</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7267687697375003</v>
+      </c>
+      <c r="S23">
+        <v>1.770756440985906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.566557768454231</v>
+        <v>1.478575863148933</v>
       </c>
       <c r="C24">
-        <v>0.167112903340211</v>
+        <v>0.1772317080389172</v>
       </c>
       <c r="D24">
-        <v>0.09882514170838874</v>
+        <v>0.1041573148307009</v>
       </c>
       <c r="E24">
-        <v>0.1025234281133578</v>
+        <v>0.0958335531232386</v>
       </c>
       <c r="F24">
-        <v>0.6469502010890977</v>
+        <v>0.592629969977871</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>6.946871788926501E-07</v>
+        <v>1.30968447116242E-05</v>
       </c>
       <c r="I24">
-        <v>0.001192836211875381</v>
+        <v>0.001354942533346559</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.4383254305158744</v>
+        <v>0.3839980403480467</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.168708197410858</v>
       </c>
       <c r="M24">
-        <v>1.360085369158867</v>
+        <v>0.1259301410353828</v>
       </c>
       <c r="N24">
-        <v>0.3910329272030424</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.358103390403755</v>
       </c>
       <c r="P24">
-        <v>0.7888402267969434</v>
+        <v>0.4019085771945186</v>
       </c>
       <c r="Q24">
-        <v>1.873739048090442</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.7675940713952247</v>
+      </c>
+      <c r="S24">
+        <v>1.690225442786527</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.28691829264568</v>
+        <v>1.220448707152428</v>
       </c>
       <c r="C25">
-        <v>0.1492869733437914</v>
+        <v>0.15305141342008</v>
       </c>
       <c r="D25">
-        <v>0.08495287945387275</v>
+        <v>0.08852506883236089</v>
       </c>
       <c r="E25">
-        <v>0.08902857367134942</v>
+        <v>0.08388829285750177</v>
       </c>
       <c r="F25">
-        <v>0.5881503324979107</v>
+        <v>0.5432513922405278</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.0004800433035354601</v>
+        <v>0.0002627171938514028</v>
       </c>
       <c r="I25">
-        <v>0.001958342370896204</v>
+        <v>0.001736776340990787</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.4249420592158302</v>
+        <v>0.3777037378074475</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1751224124480508</v>
       </c>
       <c r="M25">
-        <v>1.117775912189217</v>
+        <v>0.1134035562093203</v>
       </c>
       <c r="N25">
-        <v>0.3254014718859111</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.117343224512439</v>
       </c>
       <c r="P25">
-        <v>0.8402338032277719</v>
+        <v>0.3348424832146719</v>
       </c>
       <c r="Q25">
-        <v>1.764236286062413</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.8142865745901879</v>
+      </c>
+      <c r="S25">
+        <v>1.609370362013351</v>
       </c>
     </row>
   </sheetData>
